--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BAE180-0F38-4085-BA80-B0E5FCAC1031}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,13 +564,29 @@
   </si>
   <si>
     <t>读取用户用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取表端时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置表端时钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,6 +635,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -639,7 +659,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -686,7 +712,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -733,7 +765,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -780,7 +818,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -827,7 +871,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -874,7 +924,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -921,7 +977,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -968,7 +1030,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1015,7 +1083,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1062,7 +1136,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1109,7 +1189,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1156,7 +1242,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1203,7 +1295,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直接箭头连接符 57"/>
+        <xdr:cNvPr id="58" name="直接箭头连接符 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1250,7 +1348,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直接箭头连接符 58"/>
+        <xdr:cNvPr id="59" name="直接箭头连接符 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1297,7 +1401,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
+        <xdr:cNvPr id="60" name="直接箭头连接符 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1344,7 +1454,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1374,6 +1490,66 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="箭头: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1897380" y="792480"/>
+          <a:ext cx="1203960" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1422,7 +1598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1455,9 +1631,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1490,6 +1683,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1665,93 +1875,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:S71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="4.125" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="3.75" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="4.125" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="18" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="19" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>24</v>
       </c>
@@ -1765,7 +2033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1797,7 +2065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>2</v>
       </c>
@@ -1817,7 +2085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>3</v>
       </c>
@@ -1837,7 +2105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>4</v>
       </c>
@@ -1851,7 +2119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>5</v>
       </c>
@@ -1868,12 +2136,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1887,7 +2155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +2169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +2180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>3</v>
       </c>
@@ -1920,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>4</v>
       </c>
@@ -1928,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>5</v>
       </c>
@@ -1936,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>6</v>
       </c>
@@ -1944,7 +2212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1955,7 +2223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>1</v>
       </c>
@@ -1963,7 +2231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>2</v>
       </c>
@@ -1971,7 +2239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>3</v>
       </c>
@@ -1979,7 +2247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>4</v>
       </c>
@@ -1987,7 +2255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>5</v>
       </c>
@@ -1995,7 +2263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>6</v>
       </c>
@@ -2003,7 +2271,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>7</v>
       </c>
@@ -2011,7 +2279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2022,7 +2290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>1</v>
       </c>
@@ -2030,7 +2298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>2</v>
       </c>
@@ -2038,7 +2306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>3</v>
       </c>
@@ -2046,7 +2314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>4</v>
       </c>
@@ -2054,7 +2322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2086,7 +2354,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>52</v>
       </c>
@@ -2133,7 +2401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>80</v>
       </c>
@@ -2180,7 +2448,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>43</v>
       </c>
@@ -2227,7 +2495,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>4</v>
       </c>
@@ -2271,7 +2539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>5</v>
       </c>
@@ -2315,7 +2583,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>6</v>
       </c>
@@ -2359,7 +2627,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>7</v>
       </c>
@@ -2397,7 +2665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="H55">
         <v>8</v>
       </c>
@@ -2423,7 +2691,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="J56">
         <v>9</v>
       </c>
@@ -2437,7 +2705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>54</v>
       </c>
@@ -2454,7 +2722,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>1</v>
       </c>
@@ -2486,7 +2754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>2</v>
       </c>
@@ -2518,7 +2786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>3</v>
       </c>
@@ -2550,7 +2818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>4</v>
       </c>
@@ -2576,7 +2844,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>5</v>
       </c>
@@ -2602,7 +2870,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
       <c r="H64">
         <v>6</v>
       </c>
@@ -2622,7 +2890,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H65">
         <v>7</v>
       </c>
@@ -2636,7 +2904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H66">
         <v>8</v>
       </c>
@@ -2650,7 +2918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H67">
         <v>9</v>
       </c>
@@ -2658,7 +2926,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2669,12 +2937,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>50</v>
       </c>
@@ -2688,12 +2956,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2701,12 +2969,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BAE180-0F38-4085-BA80-B0E5FCAC1031}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,526 +66,549 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>按户名显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按户号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按门牌号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按地址显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按编号抄表 =》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/按名称抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器列表 =》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动抄实时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动抄定量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋抄表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已抄：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未抄：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示：（n/m）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据发送。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在通信。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合查询功能：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按表号查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按户号查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按门牌号查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量设置功能：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整栋/小区重新编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空所有档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置已抄档案时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型选择：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表端操作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器操作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令转发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预缴用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用操作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取冻结正转数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制开阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制关阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清异常命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试命令：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表端重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读表电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读表温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清预缴参考量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置过流超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读运营商编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读上报路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表号设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择升级模式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单表升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预缴用量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读预缴参考用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设预缴参考用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读报警限值透支量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设报警限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设关阀限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设报警关阀限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设表底数脉冲系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取功能使能状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置定时定量上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置定量上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置定时上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读表端时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校表端时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射接收阀控磁扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取RXD和TXD信道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置RXD和TXD信道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置运营商编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他操作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案操作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径设置：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据读取：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读实时数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读定时定量数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读冻结数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读自定义路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设自定义路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读档案数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读档案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加档案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除档案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改档案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读集中器号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读集中器版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读集中器时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设集中器时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读GPRS参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设GPRS参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读GPRS信号强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读集中器工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除反转计量数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取用户用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取表端时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置表端时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置抄表时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按区域抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按集中器抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小区列表 =》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按户名显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按户号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按门牌号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按地址显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按编号抄表 =》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/按名称抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中器列表 =》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动抄实时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动抄定量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示方式：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表方式：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋抄表：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>楼栋列表 =》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计结果：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已抄：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未抄：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示：（n/m）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据发送。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在通信。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合查询功能：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按表号查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按户号查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按门牌号查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量设置功能：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整栋/小区重新编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空所有档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置已抄档案时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型选择：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表端操作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中器操作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>档案操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令转发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预缴用量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用操作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取冻结正转数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制开阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制关阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清异常命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试命令：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表端重启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读表电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读表温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清预缴参考量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置过流超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读运营商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读上报路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表号设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择升级模式：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单表升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预缴用量：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读预缴参考用量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设预缴参考用量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读报警限值透支量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设报警限值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设关阀限值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设报警关阀限值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作参数：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设表底数脉冲系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取功能使能状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置定时定量上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置定量上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置定时上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读表端时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校表端时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射接收阀控磁扰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取RXD和TXD信道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置RXD和TXD信道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置运营商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径下发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他操作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>档案操作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径设置：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据读取：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读实时数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读定时定量数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读冻结数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读使能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读自定义路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设自定义路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读档案数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读档案信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加档案信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除档案信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改档案信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读集中器号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读集中器版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读集中器时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设集中器时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读GPRS参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设GPRS参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读GPRS信号强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中器初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读集中器工作模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除反转计量数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取用户用量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取表端时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置表端时钟</t>
+  </si>
+  <si>
+    <t>楼栋列表 =》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,7 +684,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -715,7 +737,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -768,7 +790,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,7 +843,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -874,7 +896,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -927,7 +949,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +1002,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1055,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1108,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1161,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1214,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1267,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1320,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1373,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1426,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1479,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1532,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,6 +1572,59 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4848225" y="285750"/>
+          <a:ext cx="1800225" cy="1133478"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1598,7 +1673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1631,26 +1706,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1683,23 +1741,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1875,53 +1916,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" customWidth="1"/>
+    <col min="14" max="14" width="3.75" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="4.125" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="18" max="18" width="4.5" customWidth="1"/>
+    <col min="19" max="19" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1932,10 +1994,16 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1946,10 +2014,16 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1960,10 +2034,16 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1974,10 +2054,16 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1988,10 +2074,13 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2002,10 +2091,10 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2016,24 +2105,24 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2041,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2053,19 +2142,19 @@
         <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H14">
         <v>2</v>
       </c>
@@ -2073,19 +2162,19 @@
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L14">
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H15">
         <v>3</v>
       </c>
@@ -2093,19 +2182,19 @@
         <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H16">
         <v>4</v>
       </c>
@@ -2116,10 +2205,10 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H17">
         <v>5</v>
       </c>
@@ -2127,7 +2216,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -2136,12 +2225,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2149,38 +2238,38 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
         <v>23</v>
       </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H23">
         <v>3</v>
       </c>
@@ -2188,7 +2277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H24">
         <v>4</v>
       </c>
@@ -2196,7 +2285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H25">
         <v>5</v>
       </c>
@@ -2204,7 +2293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H26">
         <v>6</v>
       </c>
@@ -2212,7 +2301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2220,66 +2309,66 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D35">
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D36">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2287,42 +2376,42 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D43">
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2330,603 +2419,603 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
         <v>51</v>
       </c>
-      <c r="F47" t="s">
-        <v>53</v>
-      </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N48">
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P48">
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J49">
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L49">
         <v>2</v>
       </c>
       <c r="M49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N49">
         <v>2</v>
       </c>
       <c r="O49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P49">
         <v>2</v>
       </c>
       <c r="Q49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R49">
         <v>2</v>
       </c>
       <c r="S49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J50">
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N50">
         <v>3</v>
       </c>
       <c r="O50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P50">
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R50">
         <v>3</v>
       </c>
       <c r="S50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J51">
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L51">
         <v>4</v>
       </c>
       <c r="M51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N51">
         <v>4</v>
       </c>
       <c r="O51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P51">
         <v>4</v>
       </c>
       <c r="Q51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R51">
         <v>4</v>
       </c>
       <c r="S51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H52">
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L52">
         <v>5</v>
       </c>
       <c r="M52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N52">
         <v>5</v>
       </c>
       <c r="O52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P52">
         <v>5</v>
       </c>
       <c r="Q52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R52">
         <v>5</v>
       </c>
       <c r="S52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H53">
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J53">
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L53">
         <v>6</v>
       </c>
       <c r="M53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N53">
         <v>6</v>
       </c>
       <c r="O53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P53">
         <v>6</v>
       </c>
       <c r="Q53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R53">
         <v>6</v>
       </c>
       <c r="S53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F54">
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H54">
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J54">
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L54">
         <v>7</v>
       </c>
       <c r="M54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N54">
         <v>7</v>
       </c>
       <c r="O54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P54">
         <v>7</v>
       </c>
       <c r="Q54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="5:19" x14ac:dyDescent="0.15">
       <c r="H55">
         <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L55">
         <v>8</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P55">
         <v>8</v>
       </c>
       <c r="Q55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="5:19" x14ac:dyDescent="0.15">
       <c r="J56">
         <v>9</v>
       </c>
       <c r="K56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P56">
         <v>9</v>
       </c>
       <c r="Q56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J58" t="s">
+        <v>109</v>
+      </c>
+      <c r="L58" t="s">
+        <v>110</v>
+      </c>
+      <c r="N58" t="s">
         <v>111</v>
       </c>
-      <c r="L58" t="s">
-        <v>112</v>
-      </c>
-      <c r="N58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J60">
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L60">
         <v>2</v>
       </c>
       <c r="M60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>3</v>
       </c>
       <c r="K61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N61">
         <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F62">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J62">
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N62">
         <v>4</v>
       </c>
       <c r="O62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F63">
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J63">
         <v>5</v>
       </c>
       <c r="K63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N63">
         <v>5</v>
       </c>
       <c r="O63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="5:19" x14ac:dyDescent="0.15">
       <c r="H64">
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J64">
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N64">
         <v>6</v>
       </c>
       <c r="O64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H65">
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N65">
         <v>7</v>
       </c>
       <c r="O65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H66">
         <v>8</v>
       </c>
       <c r="I66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N66">
         <v>8</v>
       </c>
       <c r="O66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H67">
         <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2934,17 +3023,17 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E71" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2956,12 +3045,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,12 +3058,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="164">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计结果：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总数：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,6 +598,78 @@
   </si>
   <si>
     <t>楼栋列表 =》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录：（n/m）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读数：100.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已抄 机抄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压  电池欠压  关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号强度83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动抄表结束！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表统计结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">确认[抄表] 空格[手输] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1[开阀] 2[关阀] 0[清异常]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +752,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,7 +805,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +858,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +911,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +964,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -949,7 +1017,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,7 +1070,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1123,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1176,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1229,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1282,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1335,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1388,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1441,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1494,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1547,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1600,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1660,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,6 +1670,165 @@
         <a:xfrm flipV="1">
           <a:off x="4848225" y="285750"/>
           <a:ext cx="1800225" cy="1133478"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2524125" y="5114925"/>
+          <a:ext cx="1543050" cy="457202"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2619375" y="3314700"/>
+          <a:ext cx="5410200" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5638800" y="2971802"/>
+          <a:ext cx="1581150" cy="1885948"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1920,7 +2147,7 @@
   <dimension ref="A2:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1951,19 +2178,19 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" t="s">
         <v>144</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -1971,13 +2198,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
@@ -1994,13 +2221,13 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2014,13 +2241,13 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -2034,13 +2261,13 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -2054,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -2074,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -2091,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -2105,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -2113,13 +2340,13 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2130,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2142,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2151,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -2162,7 +2389,7 @@
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -2171,7 +2398,7 @@
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -2182,7 +2409,7 @@
         <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -2191,7 +2418,7 @@
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -2207,8 +2434,11 @@
       <c r="M16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H17">
         <v>5</v>
       </c>
@@ -2216,7 +2446,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -2224,13 +2454,19 @@
       <c r="M17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2244,7 +2480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
         <v>16</v>
       </c>
@@ -2258,7 +2494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
         <v>17</v>
       </c>
@@ -2269,7 +2505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H23">
         <v>3</v>
       </c>
@@ -2277,7 +2513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H24">
         <v>4</v>
       </c>
@@ -2285,7 +2521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H25">
         <v>5</v>
       </c>
@@ -2293,7 +2529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H26">
         <v>6</v>
       </c>
@@ -2301,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2309,31 +2545,49 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
@@ -2341,7 +2595,13 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
@@ -2349,7 +2609,13 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
@@ -2357,7 +2623,13 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
@@ -2365,7 +2637,20 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="I37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="I38" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
@@ -2376,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
@@ -2384,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
@@ -2392,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
@@ -2400,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
@@ -2408,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.15">
@@ -2419,169 +2704,169 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N48">
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P48">
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J49">
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L49">
         <v>2</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N49">
         <v>2</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P49">
         <v>2</v>
       </c>
       <c r="Q49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R49">
         <v>2</v>
       </c>
       <c r="S49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J50">
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N50">
         <v>3</v>
       </c>
       <c r="O50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P50">
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R50">
         <v>3</v>
       </c>
       <c r="S50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="5:19" x14ac:dyDescent="0.15">
@@ -2589,43 +2874,43 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51">
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L51">
         <v>4</v>
       </c>
       <c r="M51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N51">
         <v>4</v>
       </c>
       <c r="O51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P51">
         <v>4</v>
       </c>
       <c r="Q51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R51">
         <v>4</v>
       </c>
       <c r="S51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.15">
@@ -2633,43 +2918,43 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52">
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L52">
         <v>5</v>
       </c>
       <c r="M52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N52">
         <v>5</v>
       </c>
       <c r="O52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P52">
         <v>5</v>
       </c>
       <c r="Q52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R52">
         <v>5</v>
       </c>
       <c r="S52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="5:19" x14ac:dyDescent="0.15">
@@ -2677,43 +2962,43 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53">
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J53">
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L53">
         <v>6</v>
       </c>
       <c r="M53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N53">
         <v>6</v>
       </c>
       <c r="O53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P53">
         <v>6</v>
       </c>
       <c r="Q53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R53">
         <v>6</v>
       </c>
       <c r="S53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="5:19" x14ac:dyDescent="0.15">
@@ -2721,37 +3006,37 @@
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J54">
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L54">
         <v>7</v>
       </c>
       <c r="M54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N54">
         <v>7</v>
       </c>
       <c r="O54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P54">
         <v>7</v>
       </c>
       <c r="Q54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="5:19" x14ac:dyDescent="0.15">
@@ -2759,25 +3044,25 @@
         <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L55">
         <v>8</v>
       </c>
       <c r="M55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P55">
         <v>8</v>
       </c>
       <c r="Q55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.15">
@@ -2785,30 +3070,30 @@
         <v>9</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P56">
         <v>9</v>
       </c>
       <c r="Q56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J58" t="s">
+        <v>108</v>
+      </c>
+      <c r="L58" t="s">
         <v>109</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>110</v>
-      </c>
-      <c r="N58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59" spans="5:19" x14ac:dyDescent="0.15">
@@ -2816,31 +3101,31 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="5:19" x14ac:dyDescent="0.15">
@@ -2848,31 +3133,31 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J60">
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L60">
         <v>2</v>
       </c>
       <c r="M60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="5:19" x14ac:dyDescent="0.15">
@@ -2880,31 +3165,31 @@
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J61">
         <v>3</v>
       </c>
       <c r="K61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N61">
         <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="5:19" x14ac:dyDescent="0.15">
@@ -2912,25 +3197,25 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J62">
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N62">
         <v>4</v>
       </c>
       <c r="O62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="5:19" x14ac:dyDescent="0.15">
@@ -2938,25 +3223,25 @@
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J63">
         <v>5</v>
       </c>
       <c r="K63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N63">
         <v>5</v>
       </c>
       <c r="O63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="5:19" x14ac:dyDescent="0.15">
@@ -2964,19 +3249,19 @@
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J64">
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N64">
         <v>6</v>
       </c>
       <c r="O64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
@@ -2984,13 +3269,13 @@
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N65">
         <v>7</v>
       </c>
       <c r="O65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
@@ -2998,13 +3283,13 @@
         <v>8</v>
       </c>
       <c r="I66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N66">
         <v>8</v>
       </c>
       <c r="O66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
@@ -3012,7 +3297,7 @@
         <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
@@ -3023,17 +3308,17 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -752,7 +752,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -805,7 +805,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -858,7 +858,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +911,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,7 +964,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1017,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1070,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1123,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1176,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1229,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1282,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1388,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1494,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1600,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1660,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1713,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1766,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1819,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2302,9 +2302,6 @@
       </c>
       <c r="I8" t="s">
         <v>65</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="171">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,14 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导入档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重置抄表时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,6 +662,42 @@
   </si>
   <si>
     <t>1[开阀] 2[关阀] 0[清异常]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户号/表号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户号/表号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,12 +721,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -713,8 +753,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -752,7 +795,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -805,7 +848,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -858,7 +901,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +954,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,7 +1007,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1060,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1113,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1166,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1219,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1272,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1325,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1378,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1431,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1484,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1537,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1590,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1643,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1703,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1756,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1809,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1862,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2184,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" t="s">
         <v>141</v>
       </c>
-      <c r="O2" t="s">
-        <v>143</v>
-      </c>
       <c r="Q2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -2204,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
@@ -2227,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2247,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -2267,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -2283,12 +2326,6 @@
       <c r="I7" t="s">
         <v>63</v>
       </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -2343,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2354,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" t="s">
-        <v>145</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2375,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -2395,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -2415,7 +2452,7 @@
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -2553,10 +2590,10 @@
         <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2567,10 +2604,10 @@
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2581,10 +2618,10 @@
         <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
@@ -2595,10 +2632,10 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
@@ -2609,10 +2646,10 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
@@ -2623,10 +2660,10 @@
         <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
@@ -2637,17 +2674,17 @@
         <v>40</v>
       </c>
       <c r="I36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="I38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
@@ -3328,12 +3365,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C5:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H24" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H27" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H28" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="3">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EF2F2D-F01B-4CAB-88F2-3DB6F90095C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12570"/>
+    <workbookView xWindow="3348" yWindow="996" windowWidth="17280" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="173">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按集中器抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小区列表 =》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,13 +695,25 @@
   </si>
   <si>
     <t>户号/表号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表总数1000 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已抄  1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该小区已抄 1000/1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,7 +804,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +857,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,7 +910,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -954,7 +963,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1016,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1060,7 +1069,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1122,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1175,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1228,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1281,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1334,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1387,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1440,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1493,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1546,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1599,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1652,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA67BAC5-E949-4F9A-9670-25B04DA6FDE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1712,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1765,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1818,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1871,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1976,9 +1985,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2011,6 +2037,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2186,37 +2229,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="4.125" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="3.75" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="4.125" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="18" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="19" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H2">
         <v>1</v>
       </c>
@@ -2230,30 +2273,21 @@
         <v>139</v>
       </c>
       <c r="O2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" t="s">
         <v>141</v>
       </c>
-      <c r="Q2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2273,7 +2307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2293,7 +2327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2312,8 +2346,11 @@
       <c r="M6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2326,8 +2363,14 @@
       <c r="I7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2341,7 +2384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2355,7 +2398,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2369,7 +2412,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>23</v>
       </c>
@@ -2380,10 +2423,10 @@
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2391,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2412,10 +2455,10 @@
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>2</v>
       </c>
@@ -2432,10 +2475,10 @@
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>3</v>
       </c>
@@ -2452,10 +2495,10 @@
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>4</v>
       </c>
@@ -2472,7 +2515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>5</v>
       </c>
@@ -2492,7 +2535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>31</v>
       </c>
@@ -2500,7 +2543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2514,7 +2557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>16</v>
       </c>
@@ -2528,7 +2571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>17</v>
       </c>
@@ -2539,7 +2582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>3</v>
       </c>
@@ -2547,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>4</v>
       </c>
@@ -2555,7 +2598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>5</v>
       </c>
@@ -2563,7 +2606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>6</v>
       </c>
@@ -2571,7 +2614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2582,7 +2625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>1</v>
       </c>
@@ -2590,13 +2633,13 @@
         <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>2</v>
       </c>
@@ -2604,13 +2647,13 @@
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>3</v>
       </c>
@@ -2618,13 +2661,13 @@
         <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>4</v>
       </c>
@@ -2632,13 +2675,13 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>5</v>
       </c>
@@ -2646,13 +2689,13 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>6</v>
       </c>
@@ -2660,13 +2703,13 @@
         <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>7</v>
       </c>
@@ -2674,20 +2717,20 @@
         <v>40</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="I38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2698,7 +2741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>1</v>
       </c>
@@ -2706,7 +2749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>2</v>
       </c>
@@ -2714,7 +2757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>3</v>
       </c>
@@ -2722,7 +2765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>4</v>
       </c>
@@ -2730,7 +2773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2762,7 +2805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>49</v>
       </c>
@@ -2809,7 +2852,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>77</v>
       </c>
@@ -2856,7 +2899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>40</v>
       </c>
@@ -2903,7 +2946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>4</v>
       </c>
@@ -2947,7 +2990,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>5</v>
       </c>
@@ -2991,7 +3034,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>6</v>
       </c>
@@ -3035,7 +3078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>7</v>
       </c>
@@ -3073,7 +3116,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="H55">
         <v>8</v>
       </c>
@@ -3099,7 +3142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="J56">
         <v>9</v>
       </c>
@@ -3113,7 +3156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>51</v>
       </c>
@@ -3130,7 +3173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>1</v>
       </c>
@@ -3162,7 +3205,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>2</v>
       </c>
@@ -3194,7 +3237,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>3</v>
       </c>
@@ -3226,7 +3269,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>4</v>
       </c>
@@ -3252,7 +3295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>5</v>
       </c>
@@ -3278,7 +3321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
       <c r="H64">
         <v>6</v>
       </c>
@@ -3298,7 +3341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H65">
         <v>7</v>
       </c>
@@ -3312,7 +3355,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H66">
         <v>8</v>
       </c>
@@ -3326,7 +3369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H67">
         <v>9</v>
       </c>
@@ -3334,7 +3377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -3345,12 +3388,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>47</v>
       </c>
@@ -3364,45 +3407,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>164</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>165</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" t="s">
         <v>167</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>168</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -3416,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -3430,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>3</v>
       </c>
@@ -3441,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>4</v>
       </c>
@@ -3452,7 +3495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>5</v>
       </c>
@@ -3463,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>6</v>
       </c>
@@ -3474,7 +3517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>7</v>
       </c>
@@ -3482,7 +3525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>8</v>
       </c>
@@ -3490,7 +3533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>9</v>
       </c>
@@ -3498,7 +3541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>10</v>
       </c>
@@ -3506,7 +3549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>11</v>
       </c>
@@ -3514,7 +3557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>12</v>
       </c>
@@ -3522,57 +3565,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H20" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H21" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H24" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H25" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H26" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H27" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H28" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H30" s="3">
         <v>23</v>
       </c>
@@ -3584,12 +3627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EF2F2D-F01B-4CAB-88F2-3DB6F90095C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="996" windowWidth="17280" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="990" windowWidth="17280" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="211">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,18 +574,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按区域抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小区列表 =》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>楼栋列表 =》</t>
-  </si>
-  <si>
-    <t>楼栋列表 =》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -682,10 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>户号/表号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>集中器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,26 +682,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>户号/表号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">表总数1000 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已抄  1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该小区已抄 1000/1000</t>
+    <t>户号/表号/门牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回   &lt;完成&gt;  继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表号/户号/门牌号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 &lt;等待输入&gt; 查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;小区列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;楼栋列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机：</t>
+  </si>
+  <si>
+    <t>地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表状态：已抄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表读数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表状态：（告警/阀门状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">电池电压：   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表方式：手持机/集中器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回         执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;常用命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 &lt;等待输入&gt; 统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;楼栋抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;已抄/未抄列表    n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;自动抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表进度 n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回   &lt;轮抄中&gt;  继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按楼栋抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按表号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;户表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;户表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;户表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回       常用命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号强度：(上行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,7 +901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -758,15 +909,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -790,13 +1071,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -804,7 +1085,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,13 +1124,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -857,7 +1138,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,13 +1177,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -910,7 +1191,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -949,13 +1230,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -963,7 +1244,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,13 +1283,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1016,7 +1297,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,13 +1336,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1069,7 +1350,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,13 +1389,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1122,7 +1403,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,13 +1442,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>114303</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1175,7 +1456,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,13 +1495,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1228,7 +1509,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,13 +1548,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1281,7 +1562,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,13 +1601,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1334,7 +1615,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,13 +1654,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>123828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1387,7 +1668,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,13 +1707,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1440,7 +1721,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,13 +1760,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1493,7 +1774,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,13 +1813,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1546,7 +1827,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,13 +1866,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1599,7 +1880,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1933,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,22 +1978,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47628</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,8 +2001,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4848225" y="285750"/>
-          <a:ext cx="1800225" cy="1133478"/>
+          <a:off x="4800600" y="285750"/>
+          <a:ext cx="1847850" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1751,13 +2032,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1765,7 +2046,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,13 +2085,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1818,7 +2099,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,13 +2138,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1871,7 +2152,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,6 +2162,695 @@
         <a:xfrm flipH="1">
           <a:off x="5638800" y="2971802"/>
           <a:ext cx="1581150" cy="1885948"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7905750" y="276225"/>
+          <a:ext cx="238125" cy="3"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7705725" y="666751"/>
+          <a:ext cx="361950" cy="161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="1038225"/>
+          <a:ext cx="695325" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9467850" y="609600"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9467850" y="266700"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13373100" y="809625"/>
+          <a:ext cx="2600325" cy="1381126"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11563350" y="600075"/>
+          <a:ext cx="238125" cy="3"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接箭头连接符 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="238126"/>
+          <a:ext cx="876300" cy="2552699"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12611100" y="3057526"/>
+          <a:ext cx="1238250" cy="104774"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12506325" y="3419477"/>
+          <a:ext cx="1371600" cy="1085848"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接箭头连接符 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10887075" y="2800351"/>
+          <a:ext cx="885825" cy="904874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接箭头连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12773025" y="2286000"/>
+          <a:ext cx="4105275" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直接箭头连接符 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15440025" y="4962525"/>
+          <a:ext cx="628650" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1952,7 +2922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1985,26 +2955,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2037,23 +2990,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2229,37 +3165,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="3.75" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="3.375" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="19" max="19" width="19.875" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="21" max="21" width="25.5" customWidth="1"/>
+    <col min="22" max="22" width="4.5" customWidth="1"/>
+    <col min="23" max="23" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H2">
         <v>1</v>
       </c>
@@ -2270,24 +3210,30 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="O2" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2304,10 +3250,28 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2324,10 +3288,34 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2344,13 +3332,32 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N6" s="7">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="V6" s="8">
+        <v>2</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2363,14 +3370,30 @@
       <c r="I7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="V7" s="8">
+        <v>3</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2383,8 +3406,28 @@
       <c r="I8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V8" s="8">
+        <v>4</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2395,10 +3438,19 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2409,992 +3461,1162 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O16" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="R18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="U18" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H19" t="s">
         <v>23</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J19" t="s">
         <v>27</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L19" t="s">
         <v>21</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O19" t="s">
+        <v>153</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>154</v>
+      </c>
+      <c r="R20" s="7">
+        <v>2</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="R21" s="7">
+        <v>3</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
+        <v>156</v>
+      </c>
+      <c r="R22" s="7">
+        <v>4</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="10">
+        <v>5</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" s="13"/>
+      <c r="W27" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" s="14"/>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="U32" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="U33" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U34" s="14"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U35" s="14"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" s="15"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
         <v>142</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s">
+        <v>145</v>
+      </c>
+      <c r="K41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D43">
         <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-      <c r="M17" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" t="s">
-        <v>143</v>
-      </c>
-      <c r="K30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" t="s">
-        <v>144</v>
-      </c>
-      <c r="K31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" t="s">
-        <v>145</v>
-      </c>
-      <c r="K32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s">
-        <v>146</v>
-      </c>
-      <c r="K33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" t="s">
-        <v>148</v>
-      </c>
-      <c r="K35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>4</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="I43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="I44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="I45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>4</v>
       </c>
-      <c r="D47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" t="s">
-        <v>68</v>
-      </c>
-      <c r="L47" t="s">
-        <v>78</v>
-      </c>
-      <c r="N47" t="s">
-        <v>86</v>
-      </c>
-      <c r="P47" t="s">
-        <v>93</v>
-      </c>
-      <c r="R47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D48">
+        <v>2</v>
+      </c>
       <c r="E48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>133</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
-        <v>69</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="s">
-        <v>87</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>94</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-      <c r="S48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D49">
+        <v>3</v>
+      </c>
       <c r="E49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49" t="s">
-        <v>80</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-      <c r="O49" t="s">
-        <v>88</v>
-      </c>
-      <c r="P49">
-        <v>2</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>132</v>
-      </c>
-      <c r="R49">
-        <v>2</v>
-      </c>
-      <c r="S49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D50">
+        <v>4</v>
+      </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
-      <c r="F50">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" t="s">
+        <v>68</v>
+      </c>
+      <c r="L54" t="s">
+        <v>78</v>
+      </c>
+      <c r="N54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P54" t="s">
+        <v>93</v>
+      </c>
+      <c r="R54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>79</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>94</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>71</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>80</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>132</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
         <v>3</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G57" t="s">
         <v>57</v>
       </c>
-      <c r="H50">
+      <c r="H57">
         <v>3</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I57" t="s">
         <v>63</v>
       </c>
-      <c r="J50">
+      <c r="J57">
         <v>3</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K57" t="s">
         <v>70</v>
       </c>
-      <c r="L50">
+      <c r="L57">
         <v>3</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M57" t="s">
         <v>81</v>
       </c>
-      <c r="N50">
+      <c r="N57">
         <v>3</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O57" t="s">
         <v>89</v>
       </c>
-      <c r="P50">
+      <c r="P57">
         <v>3</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q57" t="s">
         <v>95</v>
       </c>
-      <c r="R50">
+      <c r="R57">
         <v>3</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F51">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F58">
         <v>4</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G58" t="s">
         <v>58</v>
       </c>
-      <c r="H51">
+      <c r="H58">
         <v>4</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I58" t="s">
         <v>64</v>
       </c>
-      <c r="J51">
+      <c r="J58">
         <v>4</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K58" t="s">
         <v>72</v>
       </c>
-      <c r="L51">
+      <c r="L58">
         <v>4</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M58" t="s">
         <v>82</v>
       </c>
-      <c r="N51">
+      <c r="N58">
         <v>4</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O58" t="s">
         <v>90</v>
       </c>
-      <c r="P51">
+      <c r="P58">
         <v>4</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q58" t="s">
         <v>98</v>
       </c>
-      <c r="R51">
+      <c r="R58">
         <v>4</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F52">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F59">
         <v>5</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G59" t="s">
         <v>59</v>
       </c>
-      <c r="H52">
+      <c r="H59">
         <v>5</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I59" t="s">
         <v>65</v>
       </c>
-      <c r="J52">
+      <c r="J59">
         <v>5</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K59" t="s">
         <v>73</v>
       </c>
-      <c r="L52">
+      <c r="L59">
         <v>5</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M59" t="s">
         <v>83</v>
       </c>
-      <c r="N52">
+      <c r="N59">
         <v>5</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O59" t="s">
         <v>91</v>
       </c>
-      <c r="P52">
+      <c r="P59">
         <v>5</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q59" t="s">
         <v>97</v>
       </c>
-      <c r="R52">
+      <c r="R59">
         <v>5</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F53">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F60">
         <v>6</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G60" t="s">
         <v>60</v>
       </c>
-      <c r="H53">
+      <c r="H60">
         <v>6</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I60" t="s">
         <v>66</v>
       </c>
-      <c r="J53">
+      <c r="J60">
         <v>6</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K60" t="s">
         <v>74</v>
       </c>
-      <c r="L53">
+      <c r="L60">
         <v>6</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M60" t="s">
         <v>84</v>
       </c>
-      <c r="N53">
+      <c r="N60">
         <v>6</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O60" t="s">
         <v>92</v>
       </c>
-      <c r="P53">
+      <c r="P60">
         <v>6</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q60" t="s">
         <v>96</v>
       </c>
-      <c r="R53">
+      <c r="R60">
         <v>6</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S60" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F54">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F61">
         <v>7</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G61" t="s">
         <v>40</v>
       </c>
-      <c r="H54">
+      <c r="H61">
         <v>7</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I61" t="s">
         <v>67</v>
       </c>
-      <c r="J54">
+      <c r="J61">
         <v>7</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K61" t="s">
         <v>75</v>
       </c>
-      <c r="L54">
+      <c r="L61">
         <v>7</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M61" t="s">
         <v>85</v>
       </c>
-      <c r="N54">
+      <c r="N61">
         <v>7</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O61" t="s">
         <v>40</v>
       </c>
-      <c r="P54">
+      <c r="P61">
         <v>7</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q61" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="H55">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="H62">
         <v>8</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I62" t="s">
         <v>40</v>
       </c>
-      <c r="J55">
+      <c r="J62">
         <v>8</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K62" t="s">
         <v>76</v>
       </c>
-      <c r="L55">
+      <c r="L62">
         <v>8</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M62" t="s">
         <v>40</v>
       </c>
-      <c r="P55">
+      <c r="P62">
         <v>8</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="J56">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J63">
         <v>9</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K63" t="s">
         <v>40</v>
       </c>
-      <c r="P56">
+      <c r="P63">
         <v>9</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F58" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F65" t="s">
         <v>51</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H65" t="s">
         <v>61</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J65" t="s">
         <v>108</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L65" t="s">
         <v>109</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N65" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F59">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F66">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G66" t="s">
         <v>52</v>
       </c>
-      <c r="H59">
+      <c r="H66">
         <v>1</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I66" t="s">
         <v>123</v>
       </c>
-      <c r="J59">
+      <c r="J66">
         <v>1</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K66" t="s">
         <v>118</v>
       </c>
-      <c r="L59">
+      <c r="L66">
         <v>1</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M66" t="s">
         <v>116</v>
       </c>
-      <c r="N59">
+      <c r="N66">
         <v>1</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O66" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F60">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F67">
         <v>2</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G67" t="s">
         <v>53</v>
       </c>
-      <c r="H60">
+      <c r="H67">
         <v>2</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I67" t="s">
         <v>124</v>
       </c>
-      <c r="J60">
+      <c r="J67">
         <v>2</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K67" t="s">
         <v>119</v>
       </c>
-      <c r="L60">
+      <c r="L67">
         <v>2</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M67" t="s">
         <v>117</v>
       </c>
-      <c r="N60">
+      <c r="N67">
         <v>2</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O67" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F61">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F68">
         <v>3</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G68" t="s">
         <v>54</v>
       </c>
-      <c r="H61">
+      <c r="H68">
         <v>3</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I68" t="s">
         <v>125</v>
       </c>
-      <c r="J61">
+      <c r="J68">
         <v>3</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K68" t="s">
         <v>120</v>
       </c>
-      <c r="L61">
+      <c r="L68">
         <v>3</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M68" t="s">
         <v>40</v>
       </c>
-      <c r="N61">
+      <c r="N68">
         <v>3</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O68" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F62">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F69">
         <v>4</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G69" t="s">
         <v>55</v>
       </c>
-      <c r="H62">
+      <c r="H69">
         <v>4</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I69" t="s">
         <v>126</v>
       </c>
-      <c r="J62">
+      <c r="J69">
         <v>4</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K69" t="s">
         <v>121</v>
       </c>
-      <c r="N62">
+      <c r="N69">
         <v>4</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F63">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F70">
         <v>5</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G70" t="s">
         <v>40</v>
       </c>
-      <c r="H63">
+      <c r="H70">
         <v>5</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I70" t="s">
         <v>127</v>
       </c>
-      <c r="J63">
+      <c r="J70">
         <v>5</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K70" t="s">
         <v>122</v>
       </c>
-      <c r="N63">
+      <c r="N70">
         <v>5</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="H64">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H71">
         <v>6</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I71" t="s">
         <v>128</v>
       </c>
-      <c r="J64">
+      <c r="J71">
         <v>6</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K71" t="s">
         <v>40</v>
       </c>
-      <c r="N64">
+      <c r="N71">
         <v>6</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O71" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H65">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H72">
         <v>7</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I72" t="s">
         <v>129</v>
       </c>
-      <c r="N65">
+      <c r="N72">
         <v>7</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H66">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H73">
         <v>8</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I73" t="s">
         <v>130</v>
       </c>
-      <c r="N66">
+      <c r="N73">
         <v>8</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O73" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H67">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H74">
         <v>9</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>6</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B76" t="s">
         <v>5</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E76" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E78" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3407,45 +4629,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>163</v>
-      </c>
-      <c r="F5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" t="s">
-        <v>165</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>166</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -3459,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -3473,7 +4699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F10">
         <v>3</v>
       </c>
@@ -3484,7 +4710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F11">
         <v>4</v>
       </c>
@@ -3495,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F12">
         <v>5</v>
       </c>
@@ -3506,7 +4732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F13">
         <v>6</v>
       </c>
@@ -3517,7 +4743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G14">
         <v>7</v>
       </c>
@@ -3525,7 +4751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G15">
         <v>8</v>
       </c>
@@ -3533,7 +4759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G16">
         <v>9</v>
       </c>
@@ -3541,7 +4767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G17">
         <v>10</v>
       </c>
@@ -3549,7 +4775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G18">
         <v>11</v>
       </c>
@@ -3557,7 +4783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G19">
         <v>12</v>
       </c>
@@ -3565,57 +4791,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H20" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H21" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H24" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H25" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H26" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H27" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H28" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H30" s="3">
         <v>23</v>
       </c>
@@ -3627,12 +4853,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1085,7 +1085,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1138,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1244,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1297,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1615,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1668,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1721,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1774,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1827,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1880,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1933,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +1993,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2046,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2099,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2152,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2205,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2258,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="35" name="直接箭头连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2364,7 @@
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2417,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2470,7 @@
         <xdr:cNvPr id="53" name="直接箭头连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2523,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2576,7 @@
         <xdr:cNvPr id="56" name="直接箭头连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2629,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2682,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2735,7 @@
         <xdr:cNvPr id="63" name="直接箭头连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2788,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2841,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3169,7 +3169,7 @@
   <dimension ref="A2:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E6F64-9EA1-45F2-B42D-4E17822EC763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="990" windowWidth="17280" windowHeight="10590"/>
+    <workbookView xWindow="3348" yWindow="996" windowWidth="17280" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="215">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,10 +762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回         执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开阀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,10 +774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;常用命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回 &lt;等待输入&gt; 统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,18 +794,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回   &lt;轮抄中&gt;  继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按楼栋抄表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按表号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抄表统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,10 +830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回       常用命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>户名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,13 +839,49 @@
   </si>
   <si>
     <t>抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回       户表命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">返回   &lt;轮抄中&gt;  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  已抄列表显示方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按表号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.按户名显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.按户号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.按门牌号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.按地址显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      户表命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1048,6 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1085,7 +1103,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1156,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1209,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1262,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1315,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1368,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1421,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1474,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1527,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1580,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1633,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1686,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1739,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1792,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1845,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1898,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1951,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +2011,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2064,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2117,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2170,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2223,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2276,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2329,7 @@
         <xdr:cNvPr id="35" name="直接箭头连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2382,7 @@
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2435,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2488,7 @@
         <xdr:cNvPr id="53" name="直接箭头连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2541,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2594,7 @@
         <xdr:cNvPr id="56" name="直接箭头连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2647,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2700,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2753,7 @@
         <xdr:cNvPr id="63" name="直接箭头连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2806,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2859,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2940,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2955,9 +2973,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2990,6 +3025,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3165,41 +3217,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="4.125" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="3.75" customWidth="1"/>
-    <col min="15" max="15" width="19.25" customWidth="1"/>
-    <col min="16" max="16" width="3.375" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="3.875" customWidth="1"/>
-    <col min="19" max="19" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="25.5" customWidth="1"/>
-    <col min="22" max="22" width="4.5" customWidth="1"/>
-    <col min="23" max="23" width="22.25" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" customWidth="1"/>
+    <col min="22" max="22" width="4.44140625" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H2">
         <v>1</v>
       </c>
@@ -3210,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O2" t="s">
         <v>174</v>
@@ -3219,7 +3271,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>2</v>
       </c>
@@ -3233,7 +3285,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3253,25 +3305,25 @@
         <v>138</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="6"/>
       <c r="V4" s="5" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3288,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -3312,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3332,7 +3384,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N6" s="7">
         <v>2</v>
@@ -3354,10 +3406,10 @@
         <v>2</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3390,10 +3442,10 @@
         <v>3</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3424,10 +3476,10 @@
         <v>4</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3441,7 +3493,7 @@
         <v>135</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="9" t="s">
@@ -3450,7 +3502,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3464,23 +3516,23 @@
         <v>134</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>178</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="V10" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="V10" s="17"/>
       <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O11" s="7" t="s">
         <v>167</v>
       </c>
@@ -3496,7 +3548,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="9"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O12" s="7" t="s">
         <v>168</v>
       </c>
@@ -3510,55 +3562,53 @@
       <c r="V12" s="8"/>
       <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="14" t="s">
         <v>24</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="11" t="s">
-        <v>186</v>
-      </c>
+      <c r="V13" s="11"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O16" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R18" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S18" s="6"/>
       <c r="U18" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>23</v>
       </c>
@@ -3581,7 +3631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3622,7 +3672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>2</v>
       </c>
@@ -3651,7 +3701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>3</v>
       </c>
@@ -3674,13 +3724,13 @@
         <v>4</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>4</v>
       </c>
@@ -3704,7 +3754,7 @@
       </c>
       <c r="U23" s="14"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>5</v>
       </c>
@@ -3724,10 +3774,10 @@
         <v>25</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>31</v>
       </c>
@@ -3735,7 +3785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3750,10 +3800,10 @@
       </c>
       <c r="U27" s="13"/>
       <c r="W27" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>16</v>
       </c>
@@ -3766,10 +3816,12 @@
       <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="U28" s="14"/>
+      <c r="U28" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="W28" s="14"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>17</v>
       </c>
@@ -3780,11 +3832,11 @@
         <v>20</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="W29" s="14"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>3</v>
       </c>
@@ -3792,11 +3844,11 @@
         <v>8</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>4</v>
       </c>
@@ -3804,10 +3856,10 @@
         <v>9</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>5</v>
       </c>
@@ -3815,10 +3867,10 @@
         <v>10</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>6</v>
       </c>
@@ -3826,16 +3878,16 @@
         <v>11</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U34" s="14"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3847,7 +3899,7 @@
       </c>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>1</v>
       </c>
@@ -3861,7 +3913,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>2</v>
       </c>
@@ -3875,7 +3927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>3</v>
       </c>
@@ -3889,7 +3941,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>4</v>
       </c>
@@ -3903,7 +3955,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>5</v>
       </c>
@@ -3917,7 +3969,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>6</v>
       </c>
@@ -3931,7 +3983,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>7</v>
       </c>
@@ -3942,17 +3994,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3963,7 +4015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>1</v>
       </c>
@@ -3971,7 +4023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>2</v>
       </c>
@@ -3979,7 +4031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>3</v>
       </c>
@@ -3987,7 +4039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>4</v>
       </c>
@@ -3995,7 +4047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -4027,7 +4079,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>49</v>
       </c>
@@ -4074,7 +4126,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>77</v>
       </c>
@@ -4121,7 +4173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>40</v>
       </c>
@@ -4168,7 +4220,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>4</v>
       </c>
@@ -4212,7 +4264,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>5</v>
       </c>
@@ -4256,7 +4308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>6</v>
       </c>
@@ -4300,7 +4352,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>7</v>
       </c>
@@ -4338,7 +4390,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H62">
         <v>8</v>
       </c>
@@ -4364,7 +4416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J63">
         <v>9</v>
       </c>
@@ -4378,7 +4430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>51</v>
       </c>
@@ -4395,7 +4447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>1</v>
       </c>
@@ -4427,7 +4479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>2</v>
       </c>
@@ -4459,7 +4511,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>3</v>
       </c>
@@ -4491,7 +4543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>4</v>
       </c>
@@ -4517,7 +4569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>5</v>
       </c>
@@ -4543,7 +4595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H71">
         <v>6</v>
       </c>
@@ -4563,7 +4615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H72">
         <v>7</v>
       </c>
@@ -4577,7 +4629,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H73">
         <v>8</v>
       </c>
@@ -4591,7 +4643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H74">
         <v>9</v>
       </c>
@@ -4599,7 +4651,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -4610,12 +4662,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>47</v>
       </c>
@@ -4629,20 +4681,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>160</v>
       </c>
@@ -4671,7 +4723,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -4685,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -4699,7 +4751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>3</v>
       </c>
@@ -4710,7 +4762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>4</v>
       </c>
@@ -4721,7 +4773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>5</v>
       </c>
@@ -4732,7 +4784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>6</v>
       </c>
@@ -4743,7 +4795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>7</v>
       </c>
@@ -4751,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>8</v>
       </c>
@@ -4759,7 +4811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>9</v>
       </c>
@@ -4767,7 +4819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>10</v>
       </c>
@@ -4775,7 +4827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>11</v>
       </c>
@@ -4783,7 +4835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>12</v>
       </c>
@@ -4791,57 +4843,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H20" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H21" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H24" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H25" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H26" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H27" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H28" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H30" s="3">
         <v>23</v>
       </c>
@@ -4853,12 +4905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E6F64-9EA1-45F2-B42D-4E17822EC763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="996" windowWidth="17280" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="990" windowWidth="17280" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="214">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -867,10 +866,6 @@
   </si>
   <si>
     <t>4.按门牌号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.按地址显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -881,7 +876,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1103,7 +1098,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1156,7 +1151,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1209,7 +1204,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1257,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1310,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1363,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1416,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1469,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1522,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1575,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1628,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1681,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1734,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1787,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1840,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1893,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1946,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2006,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2059,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2112,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2165,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2218,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2271,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2324,7 @@
         <xdr:cNvPr id="35" name="直接箭头连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2377,7 @@
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2430,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2483,7 @@
         <xdr:cNvPr id="53" name="直接箭头连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2536,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2589,7 @@
         <xdr:cNvPr id="56" name="直接箭头连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2642,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2695,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2748,7 @@
         <xdr:cNvPr id="63" name="直接箭头连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2801,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2859,7 +2854,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2973,26 +2968,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3025,23 +3003,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3217,41 +3178,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="3.75" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="3.375" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="19" max="19" width="19.875" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="25.44140625" customWidth="1"/>
-    <col min="22" max="22" width="4.44140625" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
+    <col min="21" max="21" width="25.5" customWidth="1"/>
+    <col min="22" max="22" width="4.5" customWidth="1"/>
+    <col min="23" max="23" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H2">
         <v>1</v>
       </c>
@@ -3271,7 +3232,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H3">
         <v>2</v>
       </c>
@@ -3285,7 +3246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3319,11 +3280,11 @@
       <c r="T4" s="5"/>
       <c r="U4" s="6"/>
       <c r="V4" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3367,7 +3328,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3409,7 +3370,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3445,7 +3406,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3479,7 +3440,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3502,7 +3463,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3532,7 +3493,7 @@
       <c r="V10" s="17"/>
       <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="O11" s="7" t="s">
         <v>167</v>
       </c>
@@ -3548,7 +3509,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="9"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="O12" s="7" t="s">
         <v>168</v>
       </c>
@@ -3562,7 +3523,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="14" t="s">
@@ -3576,21 +3537,21 @@
       <c r="V13" s="11"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="O16" s="10" t="s">
         <v>189</v>
       </c>
@@ -3599,7 +3560,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="R18" s="4" t="s">
         <v>190</v>
       </c>
@@ -3608,7 +3569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H19" t="s">
         <v>23</v>
       </c>
@@ -3631,7 +3592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3672,7 +3633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H21">
         <v>2</v>
       </c>
@@ -3701,7 +3662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H22">
         <v>3</v>
       </c>
@@ -3730,7 +3691,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H23">
         <v>4</v>
       </c>
@@ -3754,7 +3715,7 @@
       </c>
       <c r="U23" s="14"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H24">
         <v>5</v>
       </c>
@@ -3777,7 +3738,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J25" t="s">
         <v>31</v>
       </c>
@@ -3785,7 +3746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3803,7 +3764,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>16</v>
       </c>
@@ -3821,7 +3782,7 @@
       </c>
       <c r="W28" s="14"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
         <v>17</v>
       </c>
@@ -3836,7 +3797,7 @@
       </c>
       <c r="W29" s="14"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H30">
         <v>3</v>
       </c>
@@ -3848,7 +3809,7 @@
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H31">
         <v>4</v>
       </c>
@@ -3859,7 +3820,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H32">
         <v>5</v>
       </c>
@@ -3870,24 +3831,22 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H33">
         <v>6</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
       </c>
-      <c r="U33" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="U34" s="14"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3899,7 +3858,7 @@
       </c>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D37">
         <v>1</v>
       </c>
@@ -3913,7 +3872,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D38">
         <v>2</v>
       </c>
@@ -3927,7 +3886,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D39">
         <v>3</v>
       </c>
@@ -3941,7 +3900,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D40">
         <v>4</v>
       </c>
@@ -3955,7 +3914,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D41">
         <v>5</v>
       </c>
@@ -3969,7 +3928,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D42">
         <v>6</v>
       </c>
@@ -3983,7 +3942,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D43">
         <v>7</v>
       </c>
@@ -3994,17 +3953,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="I44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="I45" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>4</v>
       </c>
@@ -4015,7 +3974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D47">
         <v>1</v>
       </c>
@@ -4023,7 +3982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D48">
         <v>2</v>
       </c>
@@ -4031,7 +3990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D49">
         <v>3</v>
       </c>
@@ -4039,7 +3998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D50">
         <v>4</v>
       </c>
@@ -4047,7 +4006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>5</v>
       </c>
@@ -4079,7 +4038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
         <v>49</v>
       </c>
@@ -4126,7 +4085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
         <v>77</v>
       </c>
@@ -4173,7 +4132,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E57" t="s">
         <v>40</v>
       </c>
@@ -4220,7 +4179,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F58">
         <v>4</v>
       </c>
@@ -4264,7 +4223,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F59">
         <v>5</v>
       </c>
@@ -4308,7 +4267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F60">
         <v>6</v>
       </c>
@@ -4352,7 +4311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F61">
         <v>7</v>
       </c>
@@ -4390,7 +4349,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="H62">
         <v>8</v>
       </c>
@@ -4416,7 +4375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J63">
         <v>9</v>
       </c>
@@ -4430,7 +4389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F65" t="s">
         <v>51</v>
       </c>
@@ -4447,7 +4406,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F66">
         <v>1</v>
       </c>
@@ -4479,7 +4438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F67">
         <v>2</v>
       </c>
@@ -4511,7 +4470,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F68">
         <v>3</v>
       </c>
@@ -4543,7 +4502,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F69">
         <v>4</v>
       </c>
@@ -4569,7 +4528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F70">
         <v>5</v>
       </c>
@@ -4595,7 +4554,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H71">
         <v>6</v>
       </c>
@@ -4615,7 +4574,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H72">
         <v>7</v>
       </c>
@@ -4629,7 +4588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H73">
         <v>8</v>
       </c>
@@ -4643,7 +4602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H74">
         <v>9</v>
       </c>
@@ -4651,7 +4610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>6</v>
       </c>
@@ -4662,12 +4621,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E78" t="s">
         <v>47</v>
       </c>
@@ -4681,20 +4640,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>160</v>
       </c>
@@ -4723,7 +4682,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -4737,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -4751,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F10">
         <v>3</v>
       </c>
@@ -4762,7 +4721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F11">
         <v>4</v>
       </c>
@@ -4773,7 +4732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F12">
         <v>5</v>
       </c>
@@ -4784,7 +4743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F13">
         <v>6</v>
       </c>
@@ -4795,7 +4754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G14">
         <v>7</v>
       </c>
@@ -4803,7 +4762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G15">
         <v>8</v>
       </c>
@@ -4811,7 +4770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G16">
         <v>9</v>
       </c>
@@ -4819,7 +4778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G17">
         <v>10</v>
       </c>
@@ -4827,7 +4786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G18">
         <v>11</v>
       </c>
@@ -4835,7 +4794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G19">
         <v>12</v>
       </c>
@@ -4843,57 +4802,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H20" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H21" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H24" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H25" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H26" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H27" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H28" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H30" s="3">
         <v>23</v>
       </c>
@@ -4905,12 +4864,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BFC59-A9E9-4DEC-A820-F97924E7B9E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="990" windowWidth="17280" windowHeight="10590"/>
+    <workbookView xWindow="3492" yWindow="720" windowWidth="17280" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -686,14 +687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小区编号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋编号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小区：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,13 +863,21 @@
   </si>
   <si>
     <t xml:space="preserve">      户表命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区：[全部] [单个]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋：[全部] [单个]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1098,7 +1099,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,7 +1152,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1205,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1258,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1311,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1364,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1417,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1470,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1523,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1576,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1629,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1682,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1735,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1788,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1841,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1894,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1947,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +2007,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2060,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2113,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2166,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2219,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2272,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2325,7 @@
         <xdr:cNvPr id="35" name="直接箭头连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2378,7 @@
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2431,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2484,7 @@
         <xdr:cNvPr id="53" name="直接箭头连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2537,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2590,7 @@
         <xdr:cNvPr id="56" name="直接箭头连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2643,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2696,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2749,7 @@
         <xdr:cNvPr id="63" name="直接箭头连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2802,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2855,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,7 +2936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2968,9 +2969,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3003,6 +3021,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3178,41 +3213,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="4.125" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="3.75" customWidth="1"/>
-    <col min="15" max="15" width="19.25" customWidth="1"/>
-    <col min="16" max="16" width="3.375" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="3.875" customWidth="1"/>
-    <col min="19" max="19" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="25.5" customWidth="1"/>
-    <col min="22" max="22" width="4.5" customWidth="1"/>
-    <col min="23" max="23" width="22.25" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" customWidth="1"/>
+    <col min="22" max="22" width="4.44140625" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H2">
         <v>1</v>
       </c>
@@ -3223,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>2</v>
       </c>
@@ -3246,7 +3281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3266,25 +3301,25 @@
         <v>138</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="6"/>
       <c r="V4" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3301,7 +3336,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -3311,24 +3346,22 @@
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="V5" s="8">
-        <v>1</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="V5" s="8"/>
       <c r="W5" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3345,7 +3378,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N6" s="7">
         <v>2</v>
@@ -3357,20 +3390,18 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="8"/>
       <c r="S6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T6" s="8"/>
       <c r="U6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="V6" s="8">
-        <v>2</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="V6" s="8"/>
       <c r="W6" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3393,20 +3424,18 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="8"/>
       <c r="S7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="V7" s="8">
-        <v>3</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="V7" s="8"/>
       <c r="W7" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3423,24 +3452,22 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R8" s="11"/>
       <c r="S8" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="V8" s="8">
-        <v>4</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="V8" s="8"/>
       <c r="W8" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3454,16 +3481,16 @@
         <v>135</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V9" s="8"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3477,41 +3504,41 @@
         <v>134</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
       <c r="V11" s="8"/>
       <c r="W11" s="9"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O12" s="7" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="14" t="s">
@@ -3523,53 +3550,53 @@
       <c r="V12" s="8"/>
       <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="14" t="s">
         <v>24</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="12"/>
       <c r="V13" s="11"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O16" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R18" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S18" s="6"/>
       <c r="U18" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>23</v>
       </c>
@@ -3592,7 +3619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3633,7 +3660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>2</v>
       </c>
@@ -3662,7 +3689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>3</v>
       </c>
@@ -3685,13 +3712,13 @@
         <v>4</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>4</v>
       </c>
@@ -3715,7 +3742,7 @@
       </c>
       <c r="U23" s="14"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>5</v>
       </c>
@@ -3735,10 +3762,10 @@
         <v>25</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>31</v>
       </c>
@@ -3746,7 +3773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3761,10 +3788,10 @@
       </c>
       <c r="U27" s="13"/>
       <c r="W27" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>16</v>
       </c>
@@ -3778,11 +3805,11 @@
         <v>19</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="W28" s="14"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>17</v>
       </c>
@@ -3793,11 +3820,11 @@
         <v>20</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W29" s="14"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>3</v>
       </c>
@@ -3805,11 +3832,11 @@
         <v>8</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>4</v>
       </c>
@@ -3817,10 +3844,10 @@
         <v>9</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>5</v>
       </c>
@@ -3828,10 +3855,10 @@
         <v>10</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>6</v>
       </c>
@@ -3840,13 +3867,13 @@
       </c>
       <c r="U33" s="14"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U34" s="14"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3858,7 +3885,7 @@
       </c>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>1</v>
       </c>
@@ -3872,7 +3899,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>2</v>
       </c>
@@ -3886,7 +3913,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>3</v>
       </c>
@@ -3900,7 +3927,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>4</v>
       </c>
@@ -3914,7 +3941,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>5</v>
       </c>
@@ -3928,7 +3955,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>6</v>
       </c>
@@ -3942,7 +3969,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>7</v>
       </c>
@@ -3953,17 +3980,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3974,7 +4001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>1</v>
       </c>
@@ -3982,7 +4009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>2</v>
       </c>
@@ -3990,7 +4017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>3</v>
       </c>
@@ -3998,7 +4025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>4</v>
       </c>
@@ -4006,7 +4033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -4038,7 +4065,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>49</v>
       </c>
@@ -4085,7 +4112,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>77</v>
       </c>
@@ -4132,7 +4159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>40</v>
       </c>
@@ -4179,7 +4206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>4</v>
       </c>
@@ -4223,7 +4250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>5</v>
       </c>
@@ -4267,7 +4294,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>6</v>
       </c>
@@ -4311,7 +4338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>7</v>
       </c>
@@ -4349,7 +4376,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H62">
         <v>8</v>
       </c>
@@ -4375,7 +4402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J63">
         <v>9</v>
       </c>
@@ -4389,7 +4416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>51</v>
       </c>
@@ -4406,7 +4433,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>1</v>
       </c>
@@ -4438,7 +4465,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>2</v>
       </c>
@@ -4470,7 +4497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>3</v>
       </c>
@@ -4502,7 +4529,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>4</v>
       </c>
@@ -4528,7 +4555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>5</v>
       </c>
@@ -4554,7 +4581,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H71">
         <v>6</v>
       </c>
@@ -4574,7 +4601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H72">
         <v>7</v>
       </c>
@@ -4588,7 +4615,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H73">
         <v>8</v>
       </c>
@@ -4602,7 +4629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H74">
         <v>9</v>
       </c>
@@ -4610,7 +4637,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -4621,12 +4648,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>47</v>
       </c>
@@ -4640,20 +4667,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>160</v>
       </c>
@@ -4682,7 +4709,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -4696,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -4710,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>3</v>
       </c>
@@ -4721,7 +4748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>4</v>
       </c>
@@ -4732,7 +4759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>5</v>
       </c>
@@ -4743,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>6</v>
       </c>
@@ -4754,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>7</v>
       </c>
@@ -4762,7 +4789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>8</v>
       </c>
@@ -4770,7 +4797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>9</v>
       </c>
@@ -4778,7 +4805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>10</v>
       </c>
@@ -4786,7 +4813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>11</v>
       </c>
@@ -4794,7 +4821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>12</v>
       </c>
@@ -4802,57 +4829,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H20" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H21" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H24" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H25" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H26" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H27" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H28" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H30" s="3">
         <v>23</v>
       </c>
@@ -4864,12 +4891,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BFC59-A9E9-4DEC-A820-F97924E7B9E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="720" windowWidth="17280" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="720" windowWidth="17280" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="223">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,6 +706,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>户号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机：</t>
+  </si>
+  <si>
+    <t>地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表状态：已抄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表读数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表状态：（告警/阀门状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">电池电压：   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表方式：手持机/集中器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;楼栋抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;自动抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表进度 n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按楼栋抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;户表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;户表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;户表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号强度：(上行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回       户表命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">返回   &lt;轮抄中&gt;  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按表号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.按户名显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.按户号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.按门牌号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区选择：[全部] [单个]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋选择：[全部] [单个]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回              确定</t>
+  </si>
+  <si>
+    <t>返回              确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回              确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回           户表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;已抄/未抄列表    n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;已抄/未抄列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户表命令     1/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回           确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;&lt;小区列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,169 +900,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>户号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门牌号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机：</t>
-  </si>
-  <si>
-    <t>地址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表状态：已抄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表读数：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表状态：（告警/阀门状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">电池电压：   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表方式：手持机/集中器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回 &lt;等待输入&gt; 统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;楼栋抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;已抄/未抄列表    n/m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;自动抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表进度 n/m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按楼栋抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;户表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;户表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;户表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号强度：(上行)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回       户表命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">返回   &lt;轮抄中&gt;  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  已抄列表显示方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.按表号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.按户名显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.按户号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.按门牌号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      户表命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小区：[全部] [单个]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋：[全部] [单个]</t>
+    <t xml:space="preserve"> 清空中… --&gt; 已清空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 重置中… --&gt; 已重置！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1043,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1061,7 +1095,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1085,13 +1118,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1099,7 +1132,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,13 +1171,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1152,7 +1185,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,13 +1224,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1205,7 +1238,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,13 +1277,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1258,7 +1291,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,13 +1330,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1311,7 +1344,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,13 +1383,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1364,7 +1397,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,13 +1436,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1417,7 +1450,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,13 +1489,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>114303</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1470,7 +1503,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,13 +1542,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1523,7 +1556,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,13 +1595,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1576,7 +1609,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,13 +1648,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1629,7 +1662,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,13 +1701,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1682,7 +1715,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,13 +1754,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1735,7 +1768,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,13 +1807,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1788,7 +1821,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,13 +1860,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1841,7 +1874,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,13 +1913,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1894,7 +1927,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,13 +1966,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1947,7 +1980,7 @@
         <xdr:cNvPr id="2" name="箭头: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,21 +2026,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,8 +2048,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4800600" y="285750"/>
-          <a:ext cx="1847850" cy="1333500"/>
+          <a:off x="4800600" y="1009650"/>
+          <a:ext cx="1905000" cy="1162051"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2046,13 +2079,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2060,7 +2093,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,13 +2132,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2113,7 +2146,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,13 +2185,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2166,7 +2199,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,23 +2236,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104778</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,8 +2260,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7905750" y="276225"/>
-          <a:ext cx="238125" cy="3"/>
+          <a:off x="7886700" y="304800"/>
+          <a:ext cx="428625" cy="609604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2258,13 +2291,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2272,7 +2305,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,13 +2344,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2325,7 +2358,7 @@
         <xdr:cNvPr id="35" name="直接箭头连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,84 +2396,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9467850" y="609600"/>
-          <a:ext cx="495300" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直接箭头连接符 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9467850" y="266700"/>
-          <a:ext cx="495300" cy="9525"/>
+        <a:xfrm>
+          <a:off x="9601200" y="666750"/>
+          <a:ext cx="409575" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2470,13 +2450,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2484,7 +2464,7 @@
         <xdr:cNvPr id="53" name="直接箭头连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,8 +2472,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13373100" y="809625"/>
-          <a:ext cx="2600325" cy="1381126"/>
+          <a:off x="13325475" y="1571625"/>
+          <a:ext cx="2752725" cy="619126"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2522,67 +2502,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85728</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直接箭头连接符 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11563350" y="600075"/>
-          <a:ext cx="238125" cy="3"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2590,7 +2517,7 @@
         <xdr:cNvPr id="56" name="直接箭头连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,8 +2525,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10972800" y="238126"/>
-          <a:ext cx="876300" cy="2552699"/>
+          <a:off x="11068050" y="981075"/>
+          <a:ext cx="781050" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2629,13 +2556,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2643,7 +2570,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,13 +2609,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2696,7 +2623,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,13 +2662,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2749,7 +2676,7 @@
         <xdr:cNvPr id="63" name="直接箭头连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,22 +2714,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,8 +2737,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12773025" y="2286000"/>
-          <a:ext cx="4105275" cy="2676525"/>
+          <a:off x="12582525" y="2257425"/>
+          <a:ext cx="4733925" cy="2762250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2841,13 +2768,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2855,7 +2782,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,6 +2792,271 @@
         <a:xfrm flipV="1">
           <a:off x="15440025" y="4962525"/>
           <a:ext cx="628650" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9429750" y="2181225"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="657225"/>
+          <a:ext cx="409575" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686925" y="495300"/>
+          <a:ext cx="361950" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接箭头连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7829550" y="323850"/>
+          <a:ext cx="4124325" cy="771530"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7848600" y="314325"/>
+          <a:ext cx="6038850" cy="990607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2936,7 +3128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2969,26 +3161,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3021,23 +3196,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3213,1448 +3371,1449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="3.75" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="3.375" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="19" max="19" width="19.875" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="25.44140625" customWidth="1"/>
-    <col min="22" max="22" width="4.44140625" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
+    <col min="21" max="21" width="25.5" customWidth="1"/>
+    <col min="22" max="22" width="4.5" customWidth="1"/>
+    <col min="23" max="23" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="S2" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I6" t="s">
         <v>133</v>
       </c>
-      <c r="L2">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H3">
+      <c r="M6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I7" t="s">
         <v>62</v>
       </c>
-      <c r="L3">
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I8" t="s">
         <v>136</v>
       </c>
-      <c r="L4">
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M8" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="N8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I9" t="s">
         <v>137</v>
       </c>
-      <c r="L5">
+      <c r="L9">
         <v>4</v>
       </c>
-      <c r="M5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="M9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="7">
         <v>1</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7" t="s">
+      <c r="Q9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="7" t="s">
+      <c r="S9" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>196</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>135</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>201</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="13" t="s">
-        <v>194</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="14"/>
       <c r="S10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="14" t="s">
-        <v>167</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="14"/>
       <c r="S11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O12" s="7" t="s">
+      <c r="U11" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="S12" s="7"/>
+      <c r="O12" s="12"/>
+      <c r="Q12" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O15" s="7"/>
+      <c r="U12" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O15" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="9"/>
+      <c r="W15" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="9"/>
+      <c r="W16" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
+      <c r="W17" s="15"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O16" s="10" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O20" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="R22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="U22" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>153</v>
+      </c>
+      <c r="R23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" t="s">
+        <v>154</v>
+      </c>
+      <c r="R24" s="7">
+        <v>2</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" t="s">
+        <v>155</v>
+      </c>
+      <c r="R25" s="7">
+        <v>3</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R26" s="7">
+        <v>4</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="U26" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R18" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="S18" s="6"/>
-      <c r="U18" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="10">
+        <v>5</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
         <v>23</v>
       </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" t="s">
-        <v>153</v>
-      </c>
-      <c r="R19" s="7">
+      <c r="U31" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="W34" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="14"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="U37" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>141</v>
+      </c>
+      <c r="K41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D47">
         <v>7</v>
       </c>
-      <c r="U19" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="I48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20">
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" t="s">
+        <v>78</v>
+      </c>
+      <c r="N58" t="s">
+        <v>86</v>
+      </c>
+      <c r="P58" t="s">
+        <v>93</v>
+      </c>
+      <c r="R58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>133</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>79</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>94</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>71</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60" t="s">
+        <v>80</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>88</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>132</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>70</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61" t="s">
+        <v>81</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>95</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62" t="s">
+        <v>82</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>98</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>73</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63" t="s">
+        <v>83</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>97</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64">
+        <v>6</v>
+      </c>
+      <c r="M64" t="s">
+        <v>84</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P64">
+        <v>6</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>96</v>
+      </c>
+      <c r="R64">
+        <v>6</v>
+      </c>
+      <c r="S64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F65">
         <v>7</v>
       </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20">
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65">
+        <v>7</v>
+      </c>
+      <c r="K65" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65" t="s">
+        <v>85</v>
+      </c>
+      <c r="N65">
+        <v>7</v>
+      </c>
+      <c r="O65" t="s">
+        <v>40</v>
+      </c>
+      <c r="P65">
+        <v>7</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66" t="s">
+        <v>76</v>
+      </c>
+      <c r="L66">
+        <v>8</v>
+      </c>
+      <c r="M66" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66">
+        <v>8</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J67">
+        <v>9</v>
+      </c>
+      <c r="K67" t="s">
+        <v>40</v>
+      </c>
+      <c r="P67">
+        <v>9</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" t="s">
+        <v>61</v>
+      </c>
+      <c r="J69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L69" t="s">
+        <v>109</v>
+      </c>
+      <c r="N69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F70">
         <v>1</v>
       </c>
-      <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" t="s">
-        <v>154</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="G70" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>118</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>116</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F71">
         <v>2</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="G71" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>124</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>119</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71" t="s">
+        <v>117</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+      <c r="K72" t="s">
+        <v>120</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72" t="s">
+        <v>40</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>126</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73" t="s">
+        <v>121</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74" t="s">
+        <v>127</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74" t="s">
+        <v>122</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>128</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75" t="s">
+        <v>40</v>
+      </c>
+      <c r="N75">
+        <v>6</v>
+      </c>
+      <c r="O75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H76">
+        <v>7</v>
+      </c>
+      <c r="I76" t="s">
+        <v>129</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+      <c r="O76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H77">
         <v>8</v>
       </c>
-      <c r="U20" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="I77" t="s">
+        <v>130</v>
+      </c>
+      <c r="N77">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" t="s">
-        <v>155</v>
-      </c>
-      <c r="R21" s="7">
-        <v>3</v>
-      </c>
-      <c r="S21" s="9" t="s">
+      <c r="O77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H78">
         <v>9</v>
       </c>
-      <c r="U21" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" t="s">
-        <v>156</v>
-      </c>
-      <c r="R22" s="7">
-        <v>4</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="U22" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="10">
+      <c r="I78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
         <v>5</v>
       </c>
-      <c r="S23" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="M24" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" s="13"/>
-      <c r="W27" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="U28" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="U29" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s">
-        <v>8</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="W30" s="15"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="U31" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>10</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
-      </c>
-      <c r="U33" s="14"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U34" s="14"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="U36" s="15"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" t="s">
-        <v>141</v>
-      </c>
-      <c r="K37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" t="s">
-        <v>142</v>
-      </c>
-      <c r="K38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" t="s">
-        <v>143</v>
-      </c>
-      <c r="K39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" t="s">
-        <v>144</v>
-      </c>
-      <c r="K40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" t="s">
-        <v>145</v>
-      </c>
-      <c r="K41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" t="s">
-        <v>146</v>
-      </c>
-      <c r="K42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" t="s">
-        <v>61</v>
-      </c>
-      <c r="J54" t="s">
-        <v>68</v>
-      </c>
-      <c r="L54" t="s">
-        <v>78</v>
-      </c>
-      <c r="N54" t="s">
-        <v>86</v>
-      </c>
-      <c r="P54" t="s">
-        <v>93</v>
-      </c>
-      <c r="R54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>133</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>69</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55" t="s">
-        <v>79</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="s">
-        <v>87</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>94</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56" t="s">
-        <v>62</v>
-      </c>
-      <c r="J56">
-        <v>2</v>
-      </c>
-      <c r="K56" t="s">
-        <v>71</v>
-      </c>
-      <c r="L56">
-        <v>2</v>
-      </c>
-      <c r="M56" t="s">
-        <v>80</v>
-      </c>
-      <c r="N56">
-        <v>2</v>
-      </c>
-      <c r="O56" t="s">
-        <v>88</v>
-      </c>
-      <c r="P56">
-        <v>2</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>132</v>
-      </c>
-      <c r="R56">
-        <v>2</v>
-      </c>
-      <c r="S56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57" t="s">
-        <v>63</v>
-      </c>
-      <c r="J57">
-        <v>3</v>
-      </c>
-      <c r="K57" t="s">
-        <v>70</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57" t="s">
-        <v>81</v>
-      </c>
-      <c r="N57">
-        <v>3</v>
-      </c>
-      <c r="O57" t="s">
-        <v>89</v>
-      </c>
-      <c r="P57">
-        <v>3</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>95</v>
-      </c>
-      <c r="R57">
-        <v>3</v>
-      </c>
-      <c r="S57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58">
-        <v>4</v>
-      </c>
-      <c r="I58" t="s">
-        <v>64</v>
-      </c>
-      <c r="J58">
-        <v>4</v>
-      </c>
-      <c r="K58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L58">
-        <v>4</v>
-      </c>
-      <c r="M58" t="s">
-        <v>82</v>
-      </c>
-      <c r="N58">
-        <v>4</v>
-      </c>
-      <c r="O58" t="s">
-        <v>90</v>
-      </c>
-      <c r="P58">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>98</v>
-      </c>
-      <c r="R58">
-        <v>4</v>
-      </c>
-      <c r="S58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F59">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59">
-        <v>5</v>
-      </c>
-      <c r="I59" t="s">
-        <v>65</v>
-      </c>
-      <c r="J59">
-        <v>5</v>
-      </c>
-      <c r="K59" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59">
-        <v>5</v>
-      </c>
-      <c r="M59" t="s">
-        <v>83</v>
-      </c>
-      <c r="N59">
-        <v>5</v>
-      </c>
-      <c r="O59" t="s">
-        <v>91</v>
-      </c>
-      <c r="P59">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>97</v>
-      </c>
-      <c r="R59">
-        <v>5</v>
-      </c>
-      <c r="S59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F60">
-        <v>6</v>
-      </c>
-      <c r="G60" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60">
-        <v>6</v>
-      </c>
-      <c r="I60" t="s">
-        <v>66</v>
-      </c>
-      <c r="J60">
-        <v>6</v>
-      </c>
-      <c r="K60" t="s">
-        <v>74</v>
-      </c>
-      <c r="L60">
-        <v>6</v>
-      </c>
-      <c r="M60" t="s">
-        <v>84</v>
-      </c>
-      <c r="N60">
-        <v>6</v>
-      </c>
-      <c r="O60" t="s">
-        <v>92</v>
-      </c>
-      <c r="P60">
-        <v>6</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>96</v>
-      </c>
-      <c r="R60">
-        <v>6</v>
-      </c>
-      <c r="S60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F61">
-        <v>7</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61">
-        <v>7</v>
-      </c>
-      <c r="I61" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61">
-        <v>7</v>
-      </c>
-      <c r="K61" t="s">
-        <v>75</v>
-      </c>
-      <c r="L61">
-        <v>7</v>
-      </c>
-      <c r="M61" t="s">
-        <v>85</v>
-      </c>
-      <c r="N61">
-        <v>7</v>
-      </c>
-      <c r="O61" t="s">
-        <v>40</v>
-      </c>
-      <c r="P61">
-        <v>7</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H62">
-        <v>8</v>
-      </c>
-      <c r="I62" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62">
-        <v>8</v>
-      </c>
-      <c r="K62" t="s">
-        <v>76</v>
-      </c>
-      <c r="L62">
-        <v>8</v>
-      </c>
-      <c r="M62" t="s">
-        <v>40</v>
-      </c>
-      <c r="P62">
-        <v>8</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J63">
-        <v>9</v>
-      </c>
-      <c r="K63" t="s">
-        <v>40</v>
-      </c>
-      <c r="P63">
-        <v>9</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F65" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65" t="s">
-        <v>61</v>
-      </c>
-      <c r="J65" t="s">
-        <v>108</v>
-      </c>
-      <c r="L65" t="s">
-        <v>109</v>
-      </c>
-      <c r="N65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>52</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>123</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
-        <v>118</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66" t="s">
-        <v>116</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>53</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67" t="s">
-        <v>124</v>
-      </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-      <c r="K67" t="s">
-        <v>119</v>
-      </c>
-      <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67" t="s">
-        <v>117</v>
-      </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-      <c r="O67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="G68" t="s">
-        <v>54</v>
-      </c>
-      <c r="H68">
-        <v>3</v>
-      </c>
-      <c r="I68" t="s">
-        <v>125</v>
-      </c>
-      <c r="J68">
-        <v>3</v>
-      </c>
-      <c r="K68" t="s">
-        <v>120</v>
-      </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
-      <c r="M68" t="s">
-        <v>40</v>
-      </c>
-      <c r="N68">
-        <v>3</v>
-      </c>
-      <c r="O68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <v>4</v>
-      </c>
-      <c r="G69" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69" t="s">
-        <v>126</v>
-      </c>
-      <c r="J69">
-        <v>4</v>
-      </c>
-      <c r="K69" t="s">
-        <v>121</v>
-      </c>
-      <c r="N69">
-        <v>4</v>
-      </c>
-      <c r="O69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70">
-        <v>5</v>
-      </c>
-      <c r="G70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70">
-        <v>5</v>
-      </c>
-      <c r="I70" t="s">
-        <v>127</v>
-      </c>
-      <c r="J70">
-        <v>5</v>
-      </c>
-      <c r="K70" t="s">
-        <v>122</v>
-      </c>
-      <c r="N70">
-        <v>5</v>
-      </c>
-      <c r="O70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H71">
-        <v>6</v>
-      </c>
-      <c r="I71" t="s">
-        <v>128</v>
-      </c>
-      <c r="J71">
-        <v>6</v>
-      </c>
-      <c r="K71" t="s">
-        <v>40</v>
-      </c>
-      <c r="N71">
-        <v>6</v>
-      </c>
-      <c r="O71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H72">
-        <v>7</v>
-      </c>
-      <c r="I72" t="s">
-        <v>129</v>
-      </c>
-      <c r="N72">
-        <v>7</v>
-      </c>
-      <c r="O72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H73">
-        <v>8</v>
-      </c>
-      <c r="I73" t="s">
-        <v>130</v>
-      </c>
-      <c r="N73">
-        <v>8</v>
-      </c>
-      <c r="O73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H74">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="E80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E82" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4667,20 +4826,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>160</v>
       </c>
@@ -4709,7 +4868,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -4723,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -4737,7 +4896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F10">
         <v>3</v>
       </c>
@@ -4748,7 +4907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F11">
         <v>4</v>
       </c>
@@ -4759,7 +4918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F12">
         <v>5</v>
       </c>
@@ -4770,7 +4929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F13">
         <v>6</v>
       </c>
@@ -4781,7 +4940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G14">
         <v>7</v>
       </c>
@@ -4789,7 +4948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G15">
         <v>8</v>
       </c>
@@ -4797,7 +4956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
       <c r="G16">
         <v>9</v>
       </c>
@@ -4805,7 +4964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G17">
         <v>10</v>
       </c>
@@ -4813,7 +4972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G18">
         <v>11</v>
       </c>
@@ -4821,7 +4980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G19">
         <v>12</v>
       </c>
@@ -4829,57 +4988,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H20" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H21" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H24" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H25" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H26" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H27" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H28" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
       <c r="H30" s="3">
         <v>23</v>
       </c>
@@ -4891,12 +5050,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="219">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工程调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>读取表端时钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,10 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小区：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回   &lt;完成&gt;  继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,29 +690,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回 &lt;等待输入&gt; 查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>户号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门牌号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机：</t>
   </si>
   <si>
-    <t>地址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抄表状态：已抄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,158 +709,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">电池电压：   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表方式：手持机/集中器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;自动抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表进度 n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按楼栋抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;户表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;户表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号强度：(上行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">返回   &lt;轮抄中&gt;  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按表号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.按户名显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.按户号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.按门牌号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;已抄/未抄列表    n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;已抄/未抄列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户表命令     1/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回           确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;小区列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;楼栋列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 重置中… --&gt; 已重置！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回          户表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;楼栋抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自动抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.已抄列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.未抄列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.重置抄表时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.清空抄表结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>表状态：（告警/阀门状态）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">电池电压：   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表方式：手持机/集中器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;楼栋抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;自动抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表进度 n/m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按楼栋抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;户表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;户表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;户表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号强度：(上行)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回       户表命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">返回   &lt;轮抄中&gt;  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.按表号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.按户名显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.按户号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.按门牌号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小区选择：[全部] [单个]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋选择：[全部] [单个]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小区：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回              确定</t>
-  </si>
-  <si>
-    <t>返回              确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回              确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回           户表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;已抄/未抄列表    n/m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;已抄/未抄列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户表命令     1/4</t>
+    <t>返回                确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按表号查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.按户号查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.按门牌号查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -892,19 +861,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;小区列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;楼栋列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 清空中… --&gt; 已清空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 重置中… --&gt; 已重置！</t>
+    <t>小区选择：全部/单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋选择：全部/单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回           确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应老版本的"工程调试"-&gt;"表端操作"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空中… -&gt; 已清空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本（A380）手持机功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老版本（HT2900）手持机功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回         户表命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +913,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +929,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1095,6 +1092,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1118,13 +1117,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1132,7 +1131,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,13 +1170,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1185,7 +1184,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,13 +1223,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1238,7 +1237,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,13 +1276,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1291,7 +1290,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,13 +1329,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1344,7 +1343,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,13 +1382,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1397,7 +1396,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,13 +1435,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1450,7 +1449,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,13 +1488,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114303</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1503,7 +1502,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,13 +1541,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1556,7 +1555,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,13 +1594,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1609,7 +1608,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,13 +1647,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1662,7 +1661,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,13 +1700,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1715,7 +1714,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,13 +1753,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1768,7 +1767,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,13 +1806,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1821,7 +1820,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,13 +1859,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1874,7 +1873,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,13 +1912,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1927,7 +1926,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,127 +1964,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="箭头: 右 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1897380" y="792480"/>
-          <a:ext cx="1203960" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直接箭头连接符 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4800600" y="1009650"/>
-          <a:ext cx="1905000" cy="1162051"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2093,7 +1979,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,13 +2018,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2146,7 +2032,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,13 +2071,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2199,7 +2085,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,23 +2122,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57154</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+        <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,8 +2146,220 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7886700" y="304800"/>
-          <a:ext cx="428625" cy="609604"/>
+          <a:off x="1086971" y="16102853"/>
+          <a:ext cx="1624853" cy="661147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>896471</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3854824" y="13076145"/>
+          <a:ext cx="359708" cy="550208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>806823</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3765176" y="14130618"/>
+          <a:ext cx="414618" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>806823</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3765176" y="14500412"/>
+          <a:ext cx="468406" cy="516591"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直接箭头连接符 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9618569" y="1329018"/>
+          <a:ext cx="410696" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2290,22 +2388,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直接箭头连接符 32">
+        <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,8 +2411,61 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7705725" y="666751"/>
-          <a:ext cx="361950" cy="161924"/>
+          <a:off x="13338922" y="2213722"/>
+          <a:ext cx="2748803" cy="609041"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="964266"/>
+          <a:ext cx="779369" cy="2445124"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2343,22 +2494,75 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>862853</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直接箭头连接符 34">
+        <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8482853" y="16447435"/>
+          <a:ext cx="902073" cy="114859"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>818029</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接箭头连接符 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,8 +2570,114 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="1038225"/>
-          <a:ext cx="695325" cy="561975"/>
+          <a:off x="8438029" y="16786412"/>
+          <a:ext cx="971550" cy="1078566"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6759950" y="16193623"/>
+          <a:ext cx="837638" cy="872936"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12595972" y="2886075"/>
+          <a:ext cx="4734485" cy="2708462"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2396,31 +2706,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>83484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>83485</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直接箭头连接符 44">
+        <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9601200" y="666750"/>
-          <a:ext cx="409575" cy="2"/>
+        <a:xfrm flipV="1">
+          <a:off x="10971679" y="18068925"/>
+          <a:ext cx="345702" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2448,23 +2758,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1177178</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>112620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205628</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>122145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直接箭头连接符 52">
+        <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,8 +2782,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13325475" y="1571625"/>
-          <a:ext cx="2752725" cy="619126"/>
+          <a:off x="5446619" y="15072473"/>
+          <a:ext cx="395568" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2501,23 +2811,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直接箭头连接符 55">
+        <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,8 +2835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11068050" y="981075"/>
-          <a:ext cx="781050" cy="2495550"/>
+          <a:off x="11430000" y="1319493"/>
+          <a:ext cx="407894" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2554,32 +2864,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直接箭头连接符 60">
+        <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12611100" y="3057526"/>
-          <a:ext cx="1238250" cy="104774"/>
+        <a:xfrm>
+          <a:off x="9704294" y="488576"/>
+          <a:ext cx="363071" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2607,32 +2917,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66681</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直接箭头连接符 61">
+        <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12506325" y="3419477"/>
-          <a:ext cx="1371600" cy="1085848"/>
+        <a:xfrm flipV="1">
+          <a:off x="3825128" y="12864353"/>
+          <a:ext cx="3828490" cy="817475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2660,32 +2970,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104782</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直接箭头连接符 62">
+        <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10887075" y="2800351"/>
-          <a:ext cx="885825" cy="904874"/>
+        <a:xfrm flipV="1">
+          <a:off x="3844178" y="12841941"/>
+          <a:ext cx="5355851" cy="1046076"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2713,76 +3023,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直接箭头连接符 68">
+        <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12582525" y="2257425"/>
-          <a:ext cx="4733925" cy="2762250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直接箭头连接符 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,273 +3047,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15440025" y="4962525"/>
-          <a:ext cx="628650" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直接箭头连接符 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9429750" y="2181225"/>
-          <a:ext cx="495300" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直接箭头连接符 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11410950" y="657225"/>
-          <a:ext cx="409575" cy="2"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直接箭头连接符 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9686925" y="495300"/>
-          <a:ext cx="361950" cy="2"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直接箭头连接符 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7829550" y="323850"/>
-          <a:ext cx="4124325" cy="771530"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104782</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直接箭头连接符 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7848600" y="314325"/>
-          <a:ext cx="6038850" cy="990607"/>
+          <a:off x="1075765" y="15083118"/>
+          <a:ext cx="661147" cy="1445559"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3372,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W82"/>
+  <dimension ref="A2:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3386,15 +3378,15 @@
     <col min="4" max="4" width="4.125" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
     <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="19.375" customWidth="1"/>
     <col min="14" max="14" width="3.75" customWidth="1"/>
-    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="15" max="15" width="21.875" customWidth="1"/>
     <col min="16" max="16" width="3.375" customWidth="1"/>
     <col min="17" max="17" width="19.875" customWidth="1"/>
     <col min="18" max="18" width="3.875" customWidth="1"/>
@@ -3405,829 +3397,845 @@
     <col min="23" max="23" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O2" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="S2" t="s">
-        <v>221</v>
-      </c>
-      <c r="U2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H6">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s">
+        <v>145</v>
+      </c>
+      <c r="K35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="I37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="I38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>68</v>
+      </c>
+      <c r="L47" t="s">
+        <v>78</v>
+      </c>
+      <c r="N47" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" t="s">
+        <v>93</v>
+      </c>
+      <c r="R47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
         <v>133</v>
       </c>
-      <c r="L6">
+      <c r="J48">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H7">
+      <c r="K48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>79</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>94</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
         <v>62</v>
       </c>
-      <c r="L7">
+      <c r="J49">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="K49" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>80</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>132</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8">
+      <c r="G50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="I50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50" t="s">
+        <v>81</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>95</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="F51">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L9">
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51">
         <v>4</v>
       </c>
-      <c r="M9" t="s">
-        <v>193</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10">
+      <c r="I51" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51" t="s">
+        <v>82</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>98</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="F52">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10">
+      <c r="G52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52">
         <v>5</v>
       </c>
-      <c r="M10" t="s">
-        <v>192</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="14"/>
-      <c r="S10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11">
+      <c r="I52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="M52" t="s">
+        <v>83</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>97</v>
+      </c>
+      <c r="R52">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="F53">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="S11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12">
+      <c r="G53" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+      <c r="M53" t="s">
+        <v>84</v>
+      </c>
+      <c r="N53">
+        <v>6</v>
+      </c>
+      <c r="O53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53">
+        <v>6</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>96</v>
+      </c>
+      <c r="R53">
+        <v>6</v>
+      </c>
+      <c r="S53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="F54">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="Q12" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13">
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54">
+        <v>7</v>
+      </c>
+      <c r="K54" t="s">
+        <v>75</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54" t="s">
+        <v>85</v>
+      </c>
+      <c r="N54">
+        <v>7</v>
+      </c>
+      <c r="O54" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54">
+        <v>7</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="H55">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
-        <v>134</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O15" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9"/>
-      <c r="W15" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="9"/>
-      <c r="W16" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-      <c r="W17" s="15"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="O20" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="R22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="S22" s="6"/>
-      <c r="U22" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" t="s">
-        <v>153</v>
-      </c>
-      <c r="R23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="U23" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" t="s">
-        <v>154</v>
-      </c>
-      <c r="R24" s="7">
-        <v>2</v>
-      </c>
-      <c r="S24" s="9" t="s">
+      <c r="I55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55">
         <v>8</v>
       </c>
-      <c r="U24" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K55" t="s">
+        <v>76</v>
+      </c>
+      <c r="L55">
         <v>8</v>
       </c>
-      <c r="J25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" t="s">
-        <v>155</v>
-      </c>
-      <c r="R25" s="7">
-        <v>3</v>
-      </c>
-      <c r="S25" s="9" t="s">
+      <c r="M55" t="s">
+        <v>40</v>
+      </c>
+      <c r="P55">
+        <v>8</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="5:19" x14ac:dyDescent="0.15">
+      <c r="J56">
         <v>9</v>
       </c>
-      <c r="U25" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K56" t="s">
+        <v>40</v>
+      </c>
+      <c r="P56">
         <v>9</v>
       </c>
-      <c r="J26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" t="s">
-        <v>156</v>
-      </c>
-      <c r="R26" s="7">
-        <v>4</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="10">
-        <v>5</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="U27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28">
-        <v>5</v>
-      </c>
-      <c r="M28" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" t="s">
-        <v>25</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="J29" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="U33" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="U34" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="W34" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-      <c r="U35" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36" t="s">
-        <v>10</v>
-      </c>
-      <c r="U36" s="14"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37" t="s">
-        <v>11</v>
-      </c>
-      <c r="U37" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" t="s">
-        <v>143</v>
-      </c>
-      <c r="K43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" t="s">
-        <v>144</v>
-      </c>
-      <c r="K44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" t="s">
-        <v>145</v>
-      </c>
-      <c r="K45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" t="s">
-        <v>146</v>
-      </c>
-      <c r="K46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D47">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="Q56" t="s">
         <v>40</v>
       </c>
-      <c r="I47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I48" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="I49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="58" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s">
         <v>61</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="N58" t="s">
-        <v>86</v>
-      </c>
-      <c r="P58" t="s">
-        <v>93</v>
-      </c>
-      <c r="R58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E59" t="s">
-        <v>49</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F59">
         <v>1</v>
       </c>
@@ -4238,301 +4246,175 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>87</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>94</v>
-      </c>
-      <c r="R59">
-        <v>1</v>
-      </c>
-      <c r="S59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E60" t="s">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="J60">
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="L60">
         <v>2</v>
       </c>
       <c r="M60" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>88</v>
-      </c>
-      <c r="P60">
-        <v>2</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>132</v>
-      </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E61" t="s">
-        <v>40</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="J61">
         <v>3</v>
       </c>
       <c r="K61" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="N61">
         <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>89</v>
-      </c>
-      <c r="P61">
-        <v>3</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>95</v>
-      </c>
-      <c r="R61">
-        <v>3</v>
-      </c>
-      <c r="S61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F62">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="J62">
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>72</v>
-      </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="M62" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="N62">
         <v>4</v>
       </c>
       <c r="O62" t="s">
-        <v>90</v>
-      </c>
-      <c r="P62">
-        <v>4</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>98</v>
-      </c>
-      <c r="R62">
-        <v>4</v>
-      </c>
-      <c r="S62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="5:19" x14ac:dyDescent="0.15">
       <c r="F63">
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="J63">
         <v>5</v>
       </c>
       <c r="K63" t="s">
-        <v>73</v>
-      </c>
-      <c r="L63">
-        <v>5</v>
-      </c>
-      <c r="M63" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="N63">
         <v>5</v>
       </c>
       <c r="O63" t="s">
-        <v>91</v>
-      </c>
-      <c r="P63">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>97</v>
-      </c>
-      <c r="R63">
-        <v>5</v>
-      </c>
-      <c r="S63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F64">
-        <v>6</v>
-      </c>
-      <c r="G64" t="s">
-        <v>60</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="5:19" x14ac:dyDescent="0.15">
       <c r="H64">
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="J64">
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64">
-        <v>6</v>
-      </c>
-      <c r="M64" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N64">
         <v>6</v>
       </c>
       <c r="O64" t="s">
-        <v>92</v>
-      </c>
-      <c r="P64">
-        <v>6</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>96</v>
-      </c>
-      <c r="R64">
-        <v>6</v>
-      </c>
-      <c r="S64" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="F65">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
-        <v>40</v>
-      </c>
       <c r="H65">
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65">
-        <v>7</v>
-      </c>
-      <c r="K65" t="s">
-        <v>75</v>
-      </c>
-      <c r="L65">
-        <v>7</v>
-      </c>
-      <c r="M65" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="N65">
         <v>7</v>
       </c>
       <c r="O65" t="s">
-        <v>40</v>
-      </c>
-      <c r="P65">
-        <v>7</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
@@ -4540,281 +4422,453 @@
         <v>8</v>
       </c>
       <c r="I66" t="s">
+        <v>130</v>
+      </c>
+      <c r="N66">
+        <v>8</v>
+      </c>
+      <c r="O66" t="s">
         <v>40</v>
       </c>
-      <c r="J66">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H67">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I78" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="M78" s="13"/>
+      <c r="O78" s="13"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E79" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="O79" s="14"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="M80" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="O80" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="O81" s="14"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>177</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="M82" s="15"/>
+      <c r="O82" s="15"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>137</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N84" s="5"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>179</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85" s="8"/>
+      <c r="O85" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K86" s="14"/>
+      <c r="M86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N86" s="8"/>
+      <c r="O86" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="K87" s="14"/>
+      <c r="M87" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N87" s="8"/>
+      <c r="O87" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="N88" s="8"/>
+      <c r="O88" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q88" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>8</v>
       </c>
-      <c r="K66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L66">
-        <v>8</v>
-      </c>
-      <c r="M66" t="s">
-        <v>40</v>
-      </c>
-      <c r="P66">
-        <v>8</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J67">
-        <v>9</v>
-      </c>
-      <c r="K67" t="s">
-        <v>40</v>
-      </c>
-      <c r="P67">
-        <v>9</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="F69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H69" t="s">
-        <v>61</v>
-      </c>
-      <c r="J69" t="s">
-        <v>108</v>
-      </c>
-      <c r="L69" t="s">
-        <v>109</v>
-      </c>
-      <c r="N69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>52</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" t="s">
-        <v>118</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" t="s">
-        <v>116</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71" t="s">
-        <v>53</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71" t="s">
-        <v>124</v>
-      </c>
-      <c r="J71">
-        <v>2</v>
-      </c>
-      <c r="K71" t="s">
-        <v>119</v>
-      </c>
-      <c r="L71">
-        <v>2</v>
-      </c>
-      <c r="M71" t="s">
-        <v>117</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-      <c r="O71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="F72">
-        <v>3</v>
-      </c>
-      <c r="G72" t="s">
-        <v>54</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-      <c r="I72" t="s">
-        <v>125</v>
-      </c>
-      <c r="J72">
-        <v>3</v>
-      </c>
-      <c r="K72" t="s">
-        <v>120</v>
-      </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
-      <c r="M72" t="s">
-        <v>40</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="O72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="F73">
-        <v>4</v>
-      </c>
-      <c r="G73" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73">
-        <v>4</v>
-      </c>
-      <c r="I73" t="s">
-        <v>126</v>
-      </c>
-      <c r="J73">
-        <v>4</v>
-      </c>
-      <c r="K73" t="s">
-        <v>121</v>
-      </c>
-      <c r="N73">
-        <v>4</v>
-      </c>
-      <c r="O73" t="s">
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+      <c r="M89" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89" s="8"/>
+      <c r="O89" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q89" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I90" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="N90" s="8"/>
+      <c r="O90" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q90" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="F74">
-        <v>5</v>
-      </c>
-      <c r="G74" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74">
-        <v>5</v>
-      </c>
-      <c r="I74" t="s">
-        <v>127</v>
-      </c>
-      <c r="J74">
-        <v>5</v>
-      </c>
-      <c r="K74" t="s">
-        <v>122</v>
-      </c>
-      <c r="N74">
-        <v>5</v>
-      </c>
-      <c r="O74" t="s">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I91" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N91" s="8"/>
+      <c r="O91" s="9"/>
+      <c r="Q91" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="H75">
-        <v>6</v>
-      </c>
-      <c r="I75" t="s">
-        <v>128</v>
-      </c>
-      <c r="J75">
-        <v>6</v>
-      </c>
-      <c r="K75" t="s">
-        <v>40</v>
-      </c>
-      <c r="N75">
-        <v>6</v>
-      </c>
-      <c r="O75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="H76">
-        <v>7</v>
-      </c>
-      <c r="I76" t="s">
-        <v>129</v>
-      </c>
-      <c r="N76">
-        <v>7</v>
-      </c>
-      <c r="O76" t="s">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I92" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M92" s="7"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="9"/>
+      <c r="Q92" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="H77">
-        <v>8</v>
-      </c>
-      <c r="I77" t="s">
-        <v>130</v>
-      </c>
-      <c r="N77">
-        <v>8</v>
-      </c>
-      <c r="O77" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="H78">
-        <v>9</v>
-      </c>
-      <c r="I78" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E82" t="s">
-        <v>47</v>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I93" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="N93" s="11"/>
+      <c r="O93" s="12"/>
+      <c r="Q93" s="15"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I94" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I95" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I96" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M98" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="O98" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M99" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="O99" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M100" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O100" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M101" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="O101" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M102" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="O102" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M103" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="O103" s="14"/>
+    </row>
+    <row r="104" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M104" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="O104" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q107" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O108" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q108" s="14"/>
+    </row>
+    <row r="109" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O109" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q109" s="14"/>
+    </row>
+    <row r="110" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O110" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q110" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O111" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O112" s="14"/>
+    </row>
+    <row r="113" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O113" s="15" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4841,31 +4895,31 @@
   <sheetData>
     <row r="5" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>161</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>162</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>164</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.15">

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="212">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,38 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户号/表号/门牌号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回   &lt;完成&gt;  继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,6 +856,10 @@
   </si>
   <si>
     <t>返回         户表命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空抄表结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,24 +883,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1074,11 +1032,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1092,8 +1047,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1131,7 +1086,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1139,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1192,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1245,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1298,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1351,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1404,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1457,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1510,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1563,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1616,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1669,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1722,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1775,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1828,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1881,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1934,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +1987,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2040,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2093,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2146,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2199,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2252,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2305,7 @@
         <xdr:cNvPr id="65" name="直接箭头连接符 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2358,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2411,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2464,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2517,7 @@
         <xdr:cNvPr id="71" name="直接箭头连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2570,7 @@
         <xdr:cNvPr id="72" name="直接箭头连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2623,7 @@
         <xdr:cNvPr id="73" name="直接箭头连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2676,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2729,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2782,7 @@
         <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2835,7 @@
         <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2888,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +2941,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +2994,7 @@
         <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3398,25 +3353,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -4461,60 +4416,60 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I78" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="M78" s="13"/>
-      <c r="O78" s="13"/>
+      <c r="I78" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E79" t="s">
-        <v>214</v>
-      </c>
-      <c r="I79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="O79" s="14"/>
+        <v>206</v>
+      </c>
+      <c r="I79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="O79" s="11"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="M80" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="O80" s="14" t="s">
-        <v>196</v>
+      <c r="I80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="M80" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="O81" s="14"/>
+      <c r="I81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="O81" s="11"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82">
@@ -4527,16 +4482,16 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>177</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="K82" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="M82" s="15"/>
-      <c r="O82" s="15"/>
+        <v>169</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M82" s="12"/>
+      <c r="O82" s="12"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83">
@@ -4549,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
@@ -4565,17 +4520,17 @@
       <c r="G84" t="s">
         <v>137</v>
       </c>
-      <c r="I84" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="K84" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="N84" s="5"/>
-      <c r="O84" s="6"/>
+      <c r="I84" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85">
@@ -4588,20 +4543,20 @@
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>179</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="M85" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M85" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N85" s="8"/>
-      <c r="O85" s="9" t="s">
-        <v>174</v>
+      <c r="N85" s="5"/>
+      <c r="O85" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
@@ -4617,16 +4572,16 @@
       <c r="G86" t="s">
         <v>10</v>
       </c>
-      <c r="I86" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="K86" s="14"/>
-      <c r="M86" s="7" t="s">
+      <c r="I86" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="K86" s="11"/>
+      <c r="M86" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N86" s="8"/>
-      <c r="O86" s="9" t="s">
-        <v>171</v>
+      <c r="N86" s="5"/>
+      <c r="O86" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
@@ -4636,16 +4591,16 @@
       <c r="B87" t="s">
         <v>65</v>
       </c>
-      <c r="I87" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="K87" s="14"/>
-      <c r="M87" s="7" t="s">
+      <c r="I87" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K87" s="11"/>
+      <c r="M87" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N87" s="8"/>
-      <c r="O87" s="9" t="s">
-        <v>172</v>
+      <c r="N87" s="5"/>
+      <c r="O87" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
@@ -4655,21 +4610,21 @@
       <c r="B88" t="s">
         <v>4</v>
       </c>
-      <c r="I88" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="N88" s="8"/>
-      <c r="O88" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q88" s="13" t="s">
-        <v>192</v>
+      <c r="I88" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N88" s="5"/>
+      <c r="O88" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q88" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.15">
@@ -4679,196 +4634,196 @@
       <c r="B89" t="s">
         <v>134</v>
       </c>
-      <c r="M89" s="16" t="s">
+      <c r="M89" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N89" s="8"/>
-      <c r="O89" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q89" s="14" t="s">
+      <c r="N89" s="5"/>
+      <c r="O89" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q89" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I90" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N90" s="5"/>
+      <c r="O90" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q90" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I91" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N91" s="5"/>
+      <c r="O91" s="6"/>
+      <c r="Q91" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I92" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M92" s="4"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="6"/>
+      <c r="Q92" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I93" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N93" s="8"/>
+      <c r="O93" s="9"/>
+      <c r="Q93" s="12"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I94" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I95" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I96" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M98" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O98" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M99" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M100" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O100" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M101" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="O101" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M102" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M103" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O103" s="11"/>
+    </row>
+    <row r="104" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M104" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O104" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O107" s="10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I90" s="13" t="s">
+      <c r="Q107" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O108" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q108" s="11"/>
+    </row>
+    <row r="109" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O109" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="K90" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N90" s="8"/>
-      <c r="O90" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q90" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I91" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="K91" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M91" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N91" s="8"/>
-      <c r="O91" s="9"/>
-      <c r="Q91" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I92" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="K92" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="M92" s="7"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="9"/>
-      <c r="Q92" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I93" s="14" t="s">
+      <c r="Q109" s="11"/>
+    </row>
+    <row r="110" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O110" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q110" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K93" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M93" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="N93" s="11"/>
-      <c r="O93" s="12"/>
-      <c r="Q93" s="15"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I94" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K94" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I95" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K95" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I96" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K96" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M98" s="13" t="s">
+    </row>
+    <row r="111" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O111" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="O112" s="11"/>
+    </row>
+    <row r="113" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O113" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="O98" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M99" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="O99" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M100" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="O100" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M101" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="O101" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M102" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="O102" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="103" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M103" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="O103" s="14"/>
-    </row>
-    <row r="104" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M104" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="O104" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="107" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O107" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q107" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O108" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q108" s="14"/>
-    </row>
-    <row r="109" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O109" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q109" s="14"/>
-    </row>
-    <row r="110" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O110" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q110" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="111" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O111" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O112" s="14"/>
-    </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.15">
-      <c r="O113" s="15" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4877,241 +4832,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:M30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G18">
-        <v>11</v>
-      </c>
-      <c r="H18" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G19">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H22" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H23" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H24" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H25" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H26" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H27" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H28" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H29" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H30" s="3">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="249">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,10 +739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt;已抄/未抄列表    n/m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,11 +823,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小区选择：全部/单个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋选择：全部/单个</t>
+    <t>清空中… -&gt; 已清空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本（A380）手持机功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老版本（HT2900）手持机功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回         户表命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空抄表结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.小区选择：全部/单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.楼栋选择：全部/单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -839,27 +859,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>返回           确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;抄表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;批量抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;程序升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择升级文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.查询升级状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.输入表号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;开始升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">返回    &lt;升级中&gt;     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前-&gt; 发送升级数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本：v1.2  CRC：ADFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本：v1.2  CRC：ADFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本：v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级状态：缺包等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.开始升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级状态：升级完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本：v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前缺包：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前缺包：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前发包：190 / 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制条件：无,可以升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制条件：无,可以升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;查询升级状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前-&gt;通知开始升级a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前-&gt;通知开始升级b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前-&gt; 查询升级状态b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前-&gt; 查询升级状态a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前-&gt; 查询升级状态b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;查询升级状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">返回  &lt;查询中/完成&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">返回  &lt;查询中/完成&gt;   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v1.2-ADFE 未开始/
+已完成/缺包等待  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2-ADFE 文件OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对应老版本的"工程调试"-&gt;"表端操作"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清空中… -&gt; 已清空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版本（A380）手持机功能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老版本（HT2900）手持机功能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回         户表命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空抄表结果</t>
+    <t>"工程调试"-&gt;"程序升级"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1028,11 +1177,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1049,6 +1213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1086,7 +1253,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1306,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1359,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1412,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1465,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1518,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1571,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1624,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1677,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1730,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1783,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1836,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1889,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1942,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1995,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +2048,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +2101,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +2154,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2207,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2260,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2313,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2366,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2419,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2472,7 @@
         <xdr:cNvPr id="65" name="直接箭头连接符 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2525,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2578,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2631,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2684,7 @@
         <xdr:cNvPr id="71" name="直接箭头连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2737,7 @@
         <xdr:cNvPr id="72" name="直接箭头连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2790,7 @@
         <xdr:cNvPr id="73" name="直接箭头连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2843,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2896,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2782,7 +2949,7 @@
         <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +3002,7 @@
         <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +3055,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +3108,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +3161,7 @@
         <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,6 +3188,735 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>795618</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3753971" y="20215412"/>
+          <a:ext cx="481853" cy="829236"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>795618</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3753971" y="21268765"/>
+          <a:ext cx="537882" cy="414617"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1355913</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接箭头连接符 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5625354" y="22098000"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1411941</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5681382" y="20092147"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1344705</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7451911" y="20103353"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1535204</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179292</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接箭头连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11228292" y="20069735"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直接箭头连接符 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10533529" y="21067059"/>
+          <a:ext cx="11206" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直接箭头连接符 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11217088" y="20417118"/>
+          <a:ext cx="560294" cy="22411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201708</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直接箭头连接符 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6308914" y="22927237"/>
+          <a:ext cx="11204" cy="403411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直接箭头连接符 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7732059" y="22983265"/>
+          <a:ext cx="2117912" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336178</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>123267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直接箭头连接符 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3294531" y="21638561"/>
+          <a:ext cx="2812675" cy="1781734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直接箭头连接符 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2846294" y="19543059"/>
+          <a:ext cx="0" cy="694765"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>941295</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1075765</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="肘形连接符 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289177" y="19352559"/>
+          <a:ext cx="5558117" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>963706</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>963706</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直接连接符 109"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5311588" y="19352559"/>
+          <a:ext cx="0" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3319,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S113"/>
+  <dimension ref="A2:S140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S131" sqref="S131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3333,11 +4229,11 @@
     <col min="4" max="4" width="4.125" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
     <col min="12" max="12" width="3.625" customWidth="1"/>
     <col min="13" max="13" width="19.375" customWidth="1"/>
     <col min="14" max="14" width="3.75" customWidth="1"/>
@@ -3355,7 +4251,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -4418,7 +5314,7 @@
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
       <c r="B75" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
@@ -4438,20 +5334,20 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I78" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K78" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="M78" s="10"/>
       <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E79" t="s">
-        <v>206</v>
-      </c>
-      <c r="I79" s="11"/>
-      <c r="K79" s="11"/>
+        <v>247</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="K79" s="10"/>
       <c r="M79" s="11"/>
       <c r="O79" s="11"/>
     </row>
@@ -4459,15 +5355,19 @@
       <c r="I80" s="11"/>
       <c r="K80" s="11"/>
       <c r="M80" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O80" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I81" s="11"/>
-      <c r="K81" s="11"/>
+      <c r="F81" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="I81" s="12"/>
+      <c r="K81" s="12"/>
       <c r="M81" s="11"/>
       <c r="O81" s="11"/>
     </row>
@@ -4478,17 +5378,17 @@
       <c r="B82" t="s">
         <v>133</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>1</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="3" t="s">
         <v>169</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M82" s="12"/>
       <c r="O82" s="12"/>
@@ -4500,11 +5400,11 @@
       <c r="B83" t="s">
         <v>62</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>2</v>
       </c>
-      <c r="G83" t="s">
-        <v>211</v>
+      <c r="G83" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
@@ -4514,10 +5414,10 @@
       <c r="B84" t="s">
         <v>135</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="4">
         <v>3</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="6" t="s">
         <v>137</v>
       </c>
       <c r="I84" s="10" t="s">
@@ -4539,23 +5439,23 @@
       <c r="B85" t="s">
         <v>136</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="4">
         <v>4</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I85" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="K85" s="11" t="s">
+      <c r="I85" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K85" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="M85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N85" s="5"/>
-      <c r="O85" s="6" t="s">
+      <c r="N85" s="2"/>
+      <c r="O85" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4566,14 +5466,14 @@
       <c r="B86" t="s">
         <v>63</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="4">
         <v>5</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K86" s="11"/>
       <c r="M86" s="4" t="s">
@@ -4591,10 +5491,12 @@
       <c r="B87" t="s">
         <v>65</v>
       </c>
-      <c r="I87" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="K87" s="11"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="6"/>
+      <c r="I87" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K87" s="12"/>
       <c r="M87" s="4" t="s">
         <v>145</v>
       </c>
@@ -4610,8 +5512,10 @@
       <c r="B88" t="s">
         <v>4</v>
       </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="9"/>
       <c r="I88" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>160</v>
@@ -4621,10 +5525,10 @@
       </c>
       <c r="N88" s="5"/>
       <c r="O88" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.15">
@@ -4634,6 +5538,10 @@
       <c r="B89" t="s">
         <v>134</v>
       </c>
+      <c r="F89" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G89" s="9"/>
       <c r="M89" s="13" t="s">
         <v>29</v>
       </c>
@@ -4641,13 +5549,13 @@
       <c r="O89" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="Q89" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I90" s="10" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="K90" s="10" t="s">
         <v>170</v>
@@ -4664,10 +5572,10 @@
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I91" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K91" s="11" t="s">
+      <c r="I91" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K91" s="10" t="s">
         <v>154</v>
       </c>
       <c r="M91" s="4" t="s">
@@ -4681,27 +5589,27 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I92" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K92" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="6"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="9"/>
       <c r="Q92" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I93" s="11" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="K93" s="11" t="s">
         <v>24</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="9"/>
@@ -4716,16 +5624,16 @@
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I95" s="11" t="s">
+      <c r="I95" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="K95" s="11" t="s">
+      <c r="K95" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I96" s="12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>158</v>
@@ -4733,23 +5641,23 @@
     </row>
     <row r="98" spans="13:17" x14ac:dyDescent="0.15">
       <c r="M98" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O98" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="99" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M99" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="O99" s="11" t="s">
+      <c r="M99" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O99" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="13:17" x14ac:dyDescent="0.15">
       <c r="M100" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O100" s="11" t="s">
         <v>29</v>
@@ -4757,7 +5665,7 @@
     </row>
     <row r="101" spans="13:17" x14ac:dyDescent="0.15">
       <c r="M101" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O101" s="11" t="s">
         <v>30</v>
@@ -4765,7 +5673,7 @@
     </row>
     <row r="102" spans="13:17" x14ac:dyDescent="0.15">
       <c r="M102" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O102" s="11" t="s">
         <v>168</v>
@@ -4773,13 +5681,13 @@
     </row>
     <row r="103" spans="13:17" x14ac:dyDescent="0.15">
       <c r="M103" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O103" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="O103" s="12"/>
     </row>
     <row r="104" spans="13:17" x14ac:dyDescent="0.15">
       <c r="M104" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O104" s="12" t="s">
         <v>176</v>
@@ -4787,30 +5695,30 @@
     </row>
     <row r="107" spans="13:17" x14ac:dyDescent="0.15">
       <c r="O107" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q107" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="Q108" s="11"/>
+      <c r="Q108" s="10"/>
     </row>
     <row r="109" spans="13:17" x14ac:dyDescent="0.15">
       <c r="O109" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Q109" s="11"/>
+      <c r="Q109" s="12"/>
     </row>
     <row r="110" spans="13:17" x14ac:dyDescent="0.15">
       <c r="O110" s="11" t="s">
         <v>179</v>
       </c>
       <c r="Q110" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="13:17" x14ac:dyDescent="0.15">
@@ -4819,11 +5727,258 @@
       </c>
     </row>
     <row r="112" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O112" s="11"/>
-    </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O112" s="12"/>
+    </row>
+    <row r="113" spans="5:15" x14ac:dyDescent="0.15">
       <c r="O113" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="E116" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I117" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="M117" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="O117" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I118" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O118" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I119" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="O119" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="O120" s="11"/>
+    </row>
+    <row r="121" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I121" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="O121" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F122" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="I122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="O122" s="11"/>
+    </row>
+    <row r="123" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F123" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="I123" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F124" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="I124" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="M124" s="12"/>
+      <c r="O124" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F125" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="I125" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="O125" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F126" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F127" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F128" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F129" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G129" s="9"/>
+      <c r="I129" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="O129" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F130" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G130" s="9"/>
+      <c r="I130" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O130" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I131" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="O131" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="O132" s="11"/>
+    </row>
+    <row r="133" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I133" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="O133" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="O134" s="11"/>
+    </row>
+    <row r="135" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I135" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="O135" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I136" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K136" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="O136" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="137" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I137" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="K137" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="O137" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="6:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K140" s="16" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="251">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -995,11 +995,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">v1.2-ADFE 未开始/
-已完成/缺包等待  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v1.2-ADFE 文件OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1009,6 +1004,19 @@
   </si>
   <si>
     <t>"工程调试"-&gt;"程序升级"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v1.2-ADFE 未开始升级/
+升级完成/缺包等待  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无应答时，可能处于boot缺包等待状态，需查询缺包数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       无应答时，可能处于boot缺包等待状态，需查询缺包数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1261,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1314,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1367,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1420,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1473,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1526,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1579,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1632,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1685,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1738,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1791,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1844,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1897,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1950,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2003,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2056,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2109,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2162,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2215,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2268,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2321,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2374,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2427,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2480,7 @@
         <xdr:cNvPr id="65" name="直接箭头连接符 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2533,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2586,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2639,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2692,7 @@
         <xdr:cNvPr id="71" name="直接箭头连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2745,7 @@
         <xdr:cNvPr id="72" name="直接箭头连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2798,7 @@
         <xdr:cNvPr id="73" name="直接箭头连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2851,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2904,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2957,7 @@
         <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3010,7 @@
         <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,7 +3063,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3116,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,7 +3169,7 @@
         <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3222,7 @@
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3275,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,59 +3285,6 @@
         <a:xfrm>
           <a:off x="3753971" y="21268765"/>
           <a:ext cx="537882" cy="414617"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1355913</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直接箭头连接符 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5625354" y="22098000"/>
-          <a:ext cx="571500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3373,7 +3328,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3381,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3434,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3487,7 @@
         <xdr:cNvPr id="81" name="直接箭头连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3585,7 +3540,7 @@
         <xdr:cNvPr id="82" name="直接箭头连接符 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3638,7 +3593,7 @@
         <xdr:cNvPr id="86" name="直接箭头连接符 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3691,7 +3646,7 @@
         <xdr:cNvPr id="87" name="直接箭头连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,7 +3699,7 @@
         <xdr:cNvPr id="88" name="直接箭头连接符 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +3752,7 @@
         <xdr:cNvPr id="89" name="直接箭头连接符 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,6 +3858,99 @@
         <a:xfrm flipV="1">
           <a:off x="5311588" y="19352559"/>
           <a:ext cx="0" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1165411</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="肘形连接符 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4728881" y="21392030"/>
+          <a:ext cx="2622177" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403413</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接连接符 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4751294" y="21347207"/>
+          <a:ext cx="1" cy="280146"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4218,7 +4266,7 @@
   <dimension ref="A2:S140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S131" sqref="S131"/>
+      <selection activeCell="O144" sqref="O144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5344,7 +5392,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I79" s="10"/>
       <c r="K79" s="10"/>
@@ -5734,9 +5782,14 @@
         <v>197</v>
       </c>
     </row>
+    <row r="115" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="J115" t="s">
+        <v>249</v>
+      </c>
+    </row>
     <row r="116" spans="5:15" x14ac:dyDescent="0.15">
       <c r="E116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="5:15" x14ac:dyDescent="0.15">
@@ -5874,6 +5927,9 @@
         <v>216</v>
       </c>
       <c r="G127" s="6"/>
+      <c r="I127" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="128" spans="5:15" x14ac:dyDescent="0.15">
       <c r="F128" s="4" t="s">
@@ -5883,7 +5939,7 @@
     </row>
     <row r="129" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F129" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G129" s="9"/>
       <c r="I129" s="10" t="s">
@@ -5978,7 +6034,7 @@
     </row>
     <row r="140" spans="6:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K140" s="16" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="266">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,10 +871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;程序升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.选择升级文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,10 +879,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.输入表号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  &gt; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,10 +987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1.2-ADFE 文件OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对应老版本的"工程调试"-&gt;"表端操作"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1007,16 +995,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">v1.2-ADFE 未开始升级/
+    <t>无应答时，可能处于boot缺包等待状态，需查询缺包数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       无应答时，可能处于boot缺包等待状态，需查询缺包数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Start / Finish / Pkg Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v1.2 未开始升级/
 升级完成/缺包等待  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无应答时，可能处于boot缺包等待状态，需查询缺包数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       无应答时，可能处于boot缺包等待状态，需查询缺包数</t>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;选择升级文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2     CRC-ADFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2     CRC-ADFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回              确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.添加档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.删除档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.清空档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.升级统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.查看档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;批量升级设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;单表升级/批量升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.输入表号/档案设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单表升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.批量升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级方式      1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1321,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1374,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1427,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1480,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1533,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1586,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1639,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1692,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1745,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1798,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1851,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1904,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1957,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +2010,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2063,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2116,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2169,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2222,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2275,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2328,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2381,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2434,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2487,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2540,7 @@
         <xdr:cNvPr id="65" name="直接箭头连接符 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2593,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2646,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2699,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2752,7 @@
         <xdr:cNvPr id="71" name="直接箭头连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2805,7 @@
         <xdr:cNvPr id="72" name="直接箭头连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2858,7 @@
         <xdr:cNvPr id="73" name="直接箭头连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2851,7 +2911,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2964,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +3017,7 @@
         <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3070,7 @@
         <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3123,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3176,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3169,7 +3229,7 @@
         <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,75 +3267,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>795618</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直接箭头连接符 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3753971" y="20215412"/>
-          <a:ext cx="481853" cy="829236"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>795618</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,8 +3290,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3753971" y="21268765"/>
-          <a:ext cx="537882" cy="414617"/>
+          <a:off x="3720353" y="22165236"/>
+          <a:ext cx="504265" cy="1826558"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3314,13 +3321,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1411941</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3328,7 +3335,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,13 +3374,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1344705</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3381,7 +3388,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,13 +3427,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1535204</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>179292</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3434,7 +3441,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3473,13 +3480,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>773206</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3487,7 +3494,7 @@
         <xdr:cNvPr id="81" name="直接箭头连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3526,13 +3533,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3540,7 +3547,7 @@
         <xdr:cNvPr id="82" name="直接箭头连接符 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3579,13 +3586,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>201708</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3593,7 +3600,7 @@
         <xdr:cNvPr id="86" name="直接箭头连接符 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,13 +3639,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3646,7 +3653,7 @@
         <xdr:cNvPr id="87" name="直接箭头连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3684,22 +3691,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>336178</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>123267</xdr:rowOff>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>56032</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="88" name="直接箭头连接符 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3707,61 +3714,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3294531" y="21638561"/>
-          <a:ext cx="2812675" cy="1781734"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直接箭头连接符 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2846294" y="19543059"/>
-          <a:ext cx="0" cy="694765"/>
+          <a:off x="3305735" y="22546235"/>
+          <a:ext cx="2846295" cy="3406591"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3791,13 +3745,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>941295</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1075765</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3840,13 +3794,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>963706</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>963706</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3884,13 +3838,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1165411</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3933,13 +3887,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>403413</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3965,6 +3919,324 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>907676</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直接箭头连接符 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3866029" y="21392029"/>
+          <a:ext cx="414619" cy="874059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>78439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接箭头连接符 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3059206" y="20585204"/>
+          <a:ext cx="0" cy="437031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1030941</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直接箭头连接符 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5345206" y="20697265"/>
+          <a:ext cx="22412" cy="425823"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直接箭头连接符 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3686735" y="21941118"/>
+          <a:ext cx="593912" cy="22412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直接箭头连接符 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3731559" y="20204207"/>
+          <a:ext cx="549088" cy="1243852"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>930088</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直接箭头连接符 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3888441" y="19845618"/>
+          <a:ext cx="2151530" cy="1759323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4263,10 +4535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S140"/>
+  <dimension ref="A2:S156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O144" sqref="O144"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4277,7 +4549,7 @@
     <col min="4" max="4" width="4.125" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="4.125" customWidth="1"/>
@@ -5392,7 +5664,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E79" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I79" s="10"/>
       <c r="K79" s="10"/>
@@ -5782,259 +6054,338 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="J115" t="s">
-        <v>249</v>
-      </c>
-    </row>
     <row r="116" spans="5:15" x14ac:dyDescent="0.15">
       <c r="E116" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="5:15" x14ac:dyDescent="0.15">
       <c r="I117" s="10" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="M117" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="O117" s="10" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="I118" s="10" t="s">
-        <v>223</v>
-      </c>
+      <c r="I118" s="10"/>
       <c r="K118" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="M118" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="O118" s="10" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="I119" s="11" t="s">
-        <v>220</v>
-      </c>
+      <c r="I119" s="11"/>
       <c r="K119" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="M119" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="O119" s="11" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="I120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="O120" s="11"/>
+      <c r="F120" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="I120" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="121" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="I121" s="11" t="s">
-        <v>236</v>
-      </c>
+      <c r="F121" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="I121" s="11"/>
       <c r="K121" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="M121" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F122" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="I122" s="11"/>
+      <c r="K122" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I123" s="11"/>
+      <c r="K123" s="11"/>
+    </row>
+    <row r="124" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I124" s="12"/>
+      <c r="K124" s="12"/>
+    </row>
+    <row r="125" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I125" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="I127" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="F128" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F129" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="J129" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F130" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F131" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="I131" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M131" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="O131" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F132" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="I132" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="K132" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="O121" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="122" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="F122" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="I122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="O122" s="11"/>
-    </row>
-    <row r="123" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="F123" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="I123" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K123" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="M123" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="O123" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="124" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="F124" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G124" s="6"/>
-      <c r="I124" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K124" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="M124" s="12"/>
-      <c r="O124" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="125" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="F125" s="4" t="s">
+      <c r="M132" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="O132" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F133" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="I133" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G125" s="6"/>
-      <c r="I125" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="K125" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="M125" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="O125" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="F126" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G126" s="6"/>
-    </row>
-    <row r="127" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="F127" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G127" s="6"/>
-      <c r="I127" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="F128" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G128" s="6"/>
-    </row>
-    <row r="129" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F129" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G129" s="9"/>
-      <c r="I129" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="K129" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="O129" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="130" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F130" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G130" s="9"/>
-      <c r="I130" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K130" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="O130" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="131" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="I131" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="K131" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="O131" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="132" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="I132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="O132" s="11"/>
-    </row>
-    <row r="133" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="I133" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="K133" s="11" t="s">
-        <v>240</v>
+        <v>218</v>
+      </c>
+      <c r="M133" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="O133" s="11" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F134" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G134" s="9"/>
       <c r="I134" s="11"/>
       <c r="K134" s="11"/>
+      <c r="M134" s="11"/>
       <c r="O134" s="11"/>
     </row>
     <row r="135" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F135" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G135" s="9"/>
       <c r="I135" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="O135" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="136" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="O136" s="11"/>
+    </row>
+    <row r="137" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I137" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="O137" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="138" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I138" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="K138" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="M138" s="12"/>
+      <c r="O138" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K135" s="11" t="s">
+    </row>
+    <row r="139" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I139" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K139" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="O139" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="6:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I141" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="143" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I143" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K143" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="O143" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="I144" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I145" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="O145" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="O146" s="11"/>
+    </row>
+    <row r="147" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I147" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="O147" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="O148" s="11"/>
+    </row>
+    <row r="149" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I149" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="O135" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="136" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="I136" s="12" t="s">
+      <c r="K149" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="O149" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="150" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I150" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="K136" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="O136" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="137" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="I137" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="K137" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="O137" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="140" spans="6:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K140" s="16" t="s">
+      <c r="O150" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="151" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I151" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K151" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="O151" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="9:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="K154" s="16" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="156" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="K156" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="277">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -859,10 +859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回           确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt;抄表统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1000,10 +996,6 @@
   </si>
   <si>
     <t xml:space="preserve">       无应答时，可能处于boot缺包等待状态，需查询缺包数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Start / Finish / Pkg Wait</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1048,26 +1040,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.升级统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.查看档案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;批量升级设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt;单表升级/批量升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.输入表号/档案设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.单表升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1077,6 +1057,70 @@
   </si>
   <si>
     <t>升级方式      1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回             确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotStart / Finish / PkgWait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回             删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;删除档案          n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;档案列表        n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;添加档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入表号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112233445566  not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112233445566  ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112233445566  wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前档案数：xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [ 已存在 ] ！ 2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;升级档案设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.输入表号/升级档案设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回   &lt;升级完成&gt;  确定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1283,6 +1327,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,7 +1368,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1421,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1474,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1527,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1580,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1633,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1686,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1739,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1792,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1845,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1898,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1951,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +2004,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2057,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2110,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2163,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2216,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2269,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2322,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2328,7 +2375,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2428,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2481,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2534,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2587,7 @@
         <xdr:cNvPr id="65" name="直接箭头连接符 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2640,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2693,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2746,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2799,7 @@
         <xdr:cNvPr id="71" name="直接箭头连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2852,7 @@
         <xdr:cNvPr id="72" name="直接箭头连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2905,7 @@
         <xdr:cNvPr id="73" name="直接箭头连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,7 +2958,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +3011,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3064,7 @@
         <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3117,7 @@
         <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3170,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3223,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +3276,7 @@
         <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3329,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3382,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3435,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3488,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3494,7 +3541,7 @@
         <xdr:cNvPr id="81" name="直接箭头连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +3594,7 @@
         <xdr:cNvPr id="82" name="直接箭头连接符 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3585,31 +3632,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>201708</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>67237</xdr:rowOff>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="86" name="直接箭头连接符 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6308914" y="22927237"/>
-          <a:ext cx="11204" cy="403411"/>
+        <a:xfrm flipH="1">
+          <a:off x="6555441" y="25706294"/>
+          <a:ext cx="1" cy="358588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3653,7 +3700,7 @@
         <xdr:cNvPr id="87" name="直接箭头连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3753,7 @@
         <xdr:cNvPr id="88" name="直接箭头连接符 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,7 +3992,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3998,7 +4045,7 @@
         <xdr:cNvPr id="85" name="直接箭头连接符 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +4098,7 @@
         <xdr:cNvPr id="90" name="直接箭头连接符 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4104,7 +4151,7 @@
         <xdr:cNvPr id="91" name="直接箭头连接符 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4157,7 +4204,7 @@
         <xdr:cNvPr id="95" name="直接箭头连接符 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4210,7 +4257,7 @@
         <xdr:cNvPr id="103" name="直接箭头连接符 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4220,6 +4267,218 @@
         <a:xfrm flipV="1">
           <a:off x="3888441" y="19845618"/>
           <a:ext cx="2151530" cy="1759323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直接箭头连接符 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6611470" y="20674853"/>
+          <a:ext cx="5053854" cy="4975412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1243852</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直接箭头连接符 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7575176" y="19677529"/>
+          <a:ext cx="4291853" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1276347</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直接箭头连接符 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7607671" y="19711146"/>
+          <a:ext cx="449358" cy="44825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1276348</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直接箭头连接符 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7607672" y="19688735"/>
+          <a:ext cx="2264710" cy="235326"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4537,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N120" sqref="N120"/>
+    <sheetView tabSelected="1" topLeftCell="E115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4549,13 +4808,13 @@
     <col min="4" max="4" width="4.125" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="4.125" customWidth="1"/>
     <col min="11" max="11" width="20.125" customWidth="1"/>
     <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="19.375" customWidth="1"/>
+    <col min="13" max="13" width="20.125" customWidth="1"/>
     <col min="14" max="14" width="3.75" customWidth="1"/>
     <col min="15" max="15" width="21.875" customWidth="1"/>
     <col min="16" max="16" width="3.375" customWidth="1"/>
@@ -5664,7 +5923,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I79" s="10"/>
       <c r="K79" s="10"/>
@@ -5683,7 +5942,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F81" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G81" s="3"/>
       <c r="I81" s="12"/>
@@ -5859,7 +6118,7 @@
         <v>134</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="G89" s="9"/>
       <c r="M89" s="13" t="s">
@@ -5875,7 +6134,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I90" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K90" s="10" t="s">
         <v>170</v>
@@ -6049,171 +6308,237 @@
     <row r="112" spans="13:17" x14ac:dyDescent="0.15">
       <c r="O112" s="12"/>
     </row>
-    <row r="113" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="5:17" x14ac:dyDescent="0.15">
       <c r="O113" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E116" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="117" spans="5:15" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="5:17" x14ac:dyDescent="0.15">
       <c r="I117" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="118" spans="5:15" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+      <c r="M117" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="O117" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q117" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="5:17" x14ac:dyDescent="0.15">
       <c r="I118" s="10"/>
       <c r="K118" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="119" spans="5:15" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N118" s="6"/>
+      <c r="O118" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q118" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="5:17" x14ac:dyDescent="0.15">
       <c r="I119" s="11"/>
       <c r="K119" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="120" spans="5:15" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="N119" s="6"/>
+      <c r="O119" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q119" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="5:17" x14ac:dyDescent="0.15">
       <c r="F120" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G120" s="3"/>
       <c r="I120" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="121" spans="5:15" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N120" s="6"/>
+      <c r="O120" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q120" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="5:17" x14ac:dyDescent="0.15">
       <c r="F121" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G121" s="3"/>
       <c r="I121" s="11"/>
       <c r="K121" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="M121" s="11"/>
+      <c r="O121" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q121" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F122" s="7" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="122" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="F122" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="G122" s="9"/>
       <c r="I122" s="11"/>
-      <c r="K122" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="K122" s="11"/>
+      <c r="M122" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="O122" s="11"/>
+      <c r="Q122" s="11"/>
+    </row>
+    <row r="123" spans="5:17" x14ac:dyDescent="0.15">
       <c r="I123" s="11"/>
       <c r="K123" s="11"/>
-    </row>
-    <row r="124" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="M123" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O123" s="11"/>
+      <c r="Q123" s="11"/>
+    </row>
+    <row r="124" spans="5:17" x14ac:dyDescent="0.15">
       <c r="I124" s="12"/>
       <c r="K124" s="12"/>
-    </row>
-    <row r="125" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="M124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="Q124" s="12"/>
+    </row>
+    <row r="125" spans="5:17" x14ac:dyDescent="0.15">
       <c r="I125" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="127" spans="5:15" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="O125" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q125" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="5:17" x14ac:dyDescent="0.15">
       <c r="F127" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G127" s="3"/>
       <c r="I127" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="128" spans="5:15" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="5:17" x14ac:dyDescent="0.15">
       <c r="F128" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G128" s="3"/>
     </row>
     <row r="129" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F129" s="4" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G129" s="6"/>
       <c r="J129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F130" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F131" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G131" s="6"/>
       <c r="I131" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K131" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M131" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O131" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F132" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G132" s="6"/>
       <c r="I132" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K132" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="K132" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="M132" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O132" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F133" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G133" s="6"/>
       <c r="I133" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O133" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="134" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F134" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G134" s="9"/>
       <c r="I134" s="11"/>
@@ -6223,20 +6548,20 @@
     </row>
     <row r="135" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F135" s="7" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="G135" s="9"/>
       <c r="I135" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="K135" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="K135" s="11" t="s">
+      <c r="M135" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="O135" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="M135" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="O135" s="11" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="136" spans="6:15" x14ac:dyDescent="0.15">
@@ -6247,81 +6572,81 @@
     </row>
     <row r="137" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I137" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="K137" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K137" s="11" t="s">
-        <v>232</v>
-      </c>
       <c r="M137" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O137" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I138" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M138" s="12"/>
       <c r="O138" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I139" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M139" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O139" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="6:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="141" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I143" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O143" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="144" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I144" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K144" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I145" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K145" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O145" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.15">
@@ -6331,13 +6656,13 @@
     </row>
     <row r="147" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I147" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K147" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="K147" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="O147" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="9:15" x14ac:dyDescent="0.15">
@@ -6347,45 +6672,45 @@
     </row>
     <row r="149" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I149" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K149" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I150" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O150" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="151" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I151" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="K151" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="K151" s="12" t="s">
-        <v>241</v>
-      </c>
       <c r="O151" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="154" spans="9:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="K154" s="16" t="s">
-        <v>248</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="9:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="K155" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="9:15" x14ac:dyDescent="0.15">
       <c r="K156" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="282">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1112,15 +1112,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;升级档案设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.输入表号/升级档案设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回   &lt;升级完成&gt;  确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.输入表号/升级档案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;升级档案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>》=5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 800ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1368,7 +1388,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1441,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1494,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1547,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1600,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1653,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1706,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1759,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1812,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1865,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1918,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1971,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2024,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2077,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2130,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2183,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2236,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2289,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2342,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2395,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2448,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2501,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2554,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2607,7 @@
         <xdr:cNvPr id="65" name="直接箭头连接符 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2660,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2713,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2766,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2819,7 @@
         <xdr:cNvPr id="71" name="直接箭头连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2872,7 @@
         <xdr:cNvPr id="72" name="直接箭头连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2925,7 @@
         <xdr:cNvPr id="73" name="直接箭头连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2978,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3031,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3084,7 @@
         <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3137,7 @@
         <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,7 +3190,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,7 +3243,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3276,7 +3296,7 @@
         <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3349,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3402,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3455,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3508,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3541,7 +3561,7 @@
         <xdr:cNvPr id="81" name="直接箭头连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3594,7 +3614,7 @@
         <xdr:cNvPr id="82" name="直接箭头连接符 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3647,7 +3667,7 @@
         <xdr:cNvPr id="86" name="直接箭头连接符 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3700,7 +3720,7 @@
         <xdr:cNvPr id="87" name="直接箭头连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,7 +3773,7 @@
         <xdr:cNvPr id="88" name="直接箭头连接符 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3992,7 +4012,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4045,7 +4065,7 @@
         <xdr:cNvPr id="85" name="直接箭头连接符 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4098,7 +4118,7 @@
         <xdr:cNvPr id="90" name="直接箭头连接符 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4151,7 +4171,7 @@
         <xdr:cNvPr id="91" name="直接箭头连接符 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4204,7 +4224,7 @@
         <xdr:cNvPr id="95" name="直接箭头连接符 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4257,7 +4277,7 @@
         <xdr:cNvPr id="103" name="直接箭头连接符 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4330,7 @@
         <xdr:cNvPr id="84" name="直接箭头连接符 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4363,7 +4383,7 @@
         <xdr:cNvPr id="89" name="直接箭头连接符 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4436,7 @@
         <xdr:cNvPr id="92" name="直接箭头连接符 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4469,7 +4489,7 @@
         <xdr:cNvPr id="94" name="直接箭头连接符 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4796,8 +4816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView tabSelected="1" topLeftCell="E118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q139" sqref="Q139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4813,7 +4833,7 @@
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="4.125" customWidth="1"/>
     <col min="11" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="5.875" customWidth="1"/>
     <col min="13" max="13" width="20.125" customWidth="1"/>
     <col min="14" max="14" width="3.75" customWidth="1"/>
     <col min="15" max="15" width="21.875" customWidth="1"/>
@@ -6323,7 +6343,7 @@
         <v>248</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M117" s="10" t="s">
         <v>266</v>
@@ -6610,10 +6630,26 @@
         <v>218</v>
       </c>
     </row>
-    <row r="140" spans="6:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="6:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J140" t="s">
+        <v>277</v>
+      </c>
+      <c r="L140" t="s">
+        <v>279</v>
+      </c>
+      <c r="M140" t="s">
+        <v>280</v>
+      </c>
+      <c r="N140" t="s">
+        <v>281</v>
+      </c>
+    </row>
     <row r="141" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I141" t="s">
         <v>245</v>
+      </c>
+      <c r="O141" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="6:15" x14ac:dyDescent="0.15">
@@ -6700,7 +6736,7 @@
         <v>240</v>
       </c>
       <c r="O151" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="9:15" ht="27" x14ac:dyDescent="0.15">

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="336">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1141,6 +1141,222 @@
   </si>
   <si>
     <t>5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、通知升级-在app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、通知升级-在boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、发送升级数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、查询升级状态-在boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、查询升级状态-在app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制条件：无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制条件：有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺包列表发送完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not start       --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺包等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not start       --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait pkt        --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok              --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error           --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始升级：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last state      --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、查询升级状态-在boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询升级状态：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown         --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 4 （单表时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 3  / 大于5轮时 exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not start  --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait pkt        --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait pkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow          --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all state  --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last state     --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow          --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  not start --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  wait pkt  --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ok        --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  error     --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  limit     --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  unknown   --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all state --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow    --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not start  --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级禁止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbid          --&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,7 +1364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,8 +1379,79 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,6 +1467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,7 +1621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1351,6 +1644,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4814,18 +5119,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S156"/>
+  <dimension ref="A2:S213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q139" sqref="Q139"/>
+    <sheetView tabSelected="1" topLeftCell="B163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q175" sqref="Q175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="4.25" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
@@ -6749,6 +7054,475 @@
         <v>262</v>
       </c>
     </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>308</v>
+      </c>
+      <c r="G164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I164" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="K164" t="s">
+        <v>287</v>
+      </c>
+      <c r="M164" t="s">
+        <v>292</v>
+      </c>
+      <c r="O164" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B165" t="s">
+        <v>325</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="K165" t="s">
+        <v>288</v>
+      </c>
+      <c r="M165" t="s">
+        <v>335</v>
+      </c>
+      <c r="O165" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B166" t="s">
+        <v>326</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="K166" t="s">
+        <v>289</v>
+      </c>
+      <c r="M166" t="s">
+        <v>324</v>
+      </c>
+      <c r="O166" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B167" t="s">
+        <v>327</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B168" t="s">
+        <v>328</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B169" t="s">
+        <v>329</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
+        <v>330</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G170" t="s">
+        <v>333</v>
+      </c>
+      <c r="I170" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="K170" t="s">
+        <v>287</v>
+      </c>
+      <c r="M170" t="s">
+        <v>292</v>
+      </c>
+      <c r="O170" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K171" t="s">
+        <v>288</v>
+      </c>
+      <c r="M171" t="s">
+        <v>335</v>
+      </c>
+      <c r="O171" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K172" t="s">
+        <v>289</v>
+      </c>
+      <c r="M172" t="s">
+        <v>320</v>
+      </c>
+      <c r="O172" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="G176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I176" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="K176" t="s">
+        <v>291</v>
+      </c>
+      <c r="M176" t="s">
+        <v>323</v>
+      </c>
+      <c r="O176" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="181" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G181" t="s">
+        <v>316</v>
+      </c>
+      <c r="I181" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K181" t="s">
+        <v>296</v>
+      </c>
+      <c r="M181" t="s">
+        <v>301</v>
+      </c>
+      <c r="O181" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G182" t="s">
+        <v>317</v>
+      </c>
+      <c r="K182" t="s">
+        <v>297</v>
+      </c>
+      <c r="M182" t="s">
+        <v>318</v>
+      </c>
+      <c r="O182" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G183" t="s">
+        <v>319</v>
+      </c>
+      <c r="K183" t="s">
+        <v>298</v>
+      </c>
+      <c r="M183" t="s">
+        <v>303</v>
+      </c>
+      <c r="O183" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="184" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="K184" t="s">
+        <v>299</v>
+      </c>
+      <c r="M184" t="s">
+        <v>304</v>
+      </c>
+      <c r="O184" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="185" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="K185" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="L185" s="28"/>
+      <c r="M185" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="N185" s="28"/>
+      <c r="O185" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="186" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="K186" t="s">
+        <v>300</v>
+      </c>
+      <c r="M186" t="s">
+        <v>320</v>
+      </c>
+      <c r="O186" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="189" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G189" t="s">
+        <v>316</v>
+      </c>
+      <c r="I189" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="K189" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="L189" s="28"/>
+      <c r="M189" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="N189" s="28"/>
+      <c r="O189" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="190" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G190" t="s">
+        <v>317</v>
+      </c>
+      <c r="K190" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N190" s="28"/>
+      <c r="O190" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="191" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G191" t="s">
+        <v>321</v>
+      </c>
+      <c r="K191" t="s">
+        <v>298</v>
+      </c>
+      <c r="M191" t="s">
+        <v>303</v>
+      </c>
+      <c r="O191" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="192" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="K192" t="s">
+        <v>299</v>
+      </c>
+      <c r="M192" t="s">
+        <v>304</v>
+      </c>
+      <c r="O192" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K193" t="s">
+        <v>334</v>
+      </c>
+      <c r="M193" t="s">
+        <v>335</v>
+      </c>
+      <c r="O193" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K194" t="s">
+        <v>289</v>
+      </c>
+      <c r="M194" t="s">
+        <v>310</v>
+      </c>
+      <c r="O194" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B201" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B202" t="s">
+        <v>325</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G202" t="s">
+        <v>331</v>
+      </c>
+      <c r="I202" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="K202" t="s">
+        <v>296</v>
+      </c>
+      <c r="M202" t="s">
+        <v>292</v>
+      </c>
+      <c r="O202" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B203" t="s">
+        <v>326</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K203" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="L203" s="28"/>
+      <c r="M203" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N203" s="28"/>
+      <c r="O203" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B204" t="s">
+        <v>327</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K204" t="s">
+        <v>298</v>
+      </c>
+      <c r="M204" t="s">
+        <v>303</v>
+      </c>
+      <c r="O204" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B205" t="s">
+        <v>328</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K205" t="s">
+        <v>299</v>
+      </c>
+      <c r="M205" t="s">
+        <v>304</v>
+      </c>
+      <c r="O205" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B206" t="s">
+        <v>329</v>
+      </c>
+      <c r="D206" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K206" t="s">
+        <v>289</v>
+      </c>
+      <c r="M206" t="s">
+        <v>313</v>
+      </c>
+      <c r="O206" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B207" t="s">
+        <v>330</v>
+      </c>
+      <c r="D207" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="209" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G209" t="s">
+        <v>332</v>
+      </c>
+      <c r="I209" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="K209" t="s">
+        <v>296</v>
+      </c>
+      <c r="M209" t="s">
+        <v>292</v>
+      </c>
+      <c r="O209" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="210" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="K210" t="s">
+        <v>297</v>
+      </c>
+      <c r="M210" t="s">
+        <v>302</v>
+      </c>
+      <c r="O210" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="211" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="K211" t="s">
+        <v>298</v>
+      </c>
+      <c r="M211" t="s">
+        <v>303</v>
+      </c>
+      <c r="O211" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="212" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="K212" t="s">
+        <v>299</v>
+      </c>
+      <c r="M212" t="s">
+        <v>304</v>
+      </c>
+      <c r="O212" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="213" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="K213" t="s">
+        <v>289</v>
+      </c>
+      <c r="M213" t="s">
+        <v>310</v>
+      </c>
+      <c r="O213" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="340">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,10 +1272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>step 4 （单表时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>step 3  / 大于5轮时 exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1357,6 +1353,69 @@
   </si>
   <si>
     <t>forbid          --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>step 1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>step 4 （单表时）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>step 5/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>step 4 （单表时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait pkt        --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait pkt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,7 +1423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1448,6 +1507,22 @@
       <color theme="5" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1621,7 +1696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1656,6 +1731,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1693,7 +1769,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1822,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1875,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1928,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1981,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +2034,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2087,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2140,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2193,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2246,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2299,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2352,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2405,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2458,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2511,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2564,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2617,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2670,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2723,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2776,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2829,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2882,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2859,7 +2935,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2988,7 @@
         <xdr:cNvPr id="65" name="直接箭头连接符 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +3041,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,7 +3094,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3147,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3200,7 @@
         <xdr:cNvPr id="71" name="直接箭头连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3177,7 +3253,7 @@
         <xdr:cNvPr id="72" name="直接箭头连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3230,7 +3306,7 @@
         <xdr:cNvPr id="73" name="直接箭头连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3359,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3412,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3389,7 +3465,7 @@
         <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3518,7 @@
         <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +3571,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,7 +3624,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3601,7 +3677,7 @@
         <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3654,7 +3730,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3707,7 +3783,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3836,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3813,7 +3889,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3866,7 +3942,7 @@
         <xdr:cNvPr id="81" name="直接箭头连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3919,7 +3995,7 @@
         <xdr:cNvPr id="82" name="直接箭头连接符 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3972,7 +4048,7 @@
         <xdr:cNvPr id="86" name="直接箭头连接符 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4101,7 @@
         <xdr:cNvPr id="87" name="直接箭头连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,7 +4154,7 @@
         <xdr:cNvPr id="88" name="直接箭头连接符 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4317,7 +4393,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4370,7 +4446,7 @@
         <xdr:cNvPr id="85" name="直接箭头连接符 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4423,7 +4499,7 @@
         <xdr:cNvPr id="90" name="直接箭头连接符 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4476,7 +4552,7 @@
         <xdr:cNvPr id="91" name="直接箭头连接符 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4529,7 +4605,7 @@
         <xdr:cNvPr id="95" name="直接箭头连接符 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4582,7 +4658,7 @@
         <xdr:cNvPr id="103" name="直接箭头连接符 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4635,7 +4711,7 @@
         <xdr:cNvPr id="84" name="直接箭头连接符 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4688,7 +4764,7 @@
         <xdr:cNvPr id="89" name="直接箭头连接符 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4817,7 @@
         <xdr:cNvPr id="92" name="直接箭头连接符 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4794,7 +4870,7 @@
         <xdr:cNvPr id="94" name="直接箭头连接符 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5121,8 +5197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q175" sqref="Q175"/>
+    <sheetView tabSelected="1" topLeftCell="B190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7059,7 +7135,7 @@
         <v>308</v>
       </c>
       <c r="G164" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I164" s="18" t="s">
         <v>282</v>
@@ -7076,16 +7152,16 @@
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="K165" t="s">
         <v>288</v>
       </c>
       <c r="M165" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O165" s="25" t="s">
         <v>290</v>
@@ -7093,16 +7169,16 @@
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
-        <v>326</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>314</v>
+        <v>325</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>336</v>
       </c>
       <c r="K166" t="s">
         <v>289</v>
       </c>
       <c r="M166" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O166" s="22" t="s">
         <v>295</v>
@@ -7110,7 +7186,7 @@
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D167" s="27" t="s">
         <v>309</v>
@@ -7118,7 +7194,7 @@
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>309</v>
@@ -7126,7 +7202,7 @@
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>309</v>
@@ -7134,13 +7210,13 @@
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D170" s="27" t="s">
         <v>309</v>
       </c>
       <c r="G170" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I170" s="20" t="s">
         <v>283</v>
@@ -7160,7 +7236,7 @@
         <v>288</v>
       </c>
       <c r="M171" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O171" s="25" t="s">
         <v>290</v>
@@ -7171,7 +7247,7 @@
         <v>289</v>
       </c>
       <c r="M172" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O172" s="26" t="s">
         <v>290</v>
@@ -7179,7 +7255,7 @@
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.15">
       <c r="G176" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I176" s="21" t="s">
         <v>284</v>
@@ -7188,7 +7264,7 @@
         <v>291</v>
       </c>
       <c r="M176" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O176" s="22" t="s">
         <v>295</v>
@@ -7196,7 +7272,7 @@
     </row>
     <row r="181" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G181" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I181" s="22" t="s">
         <v>285</v>
@@ -7213,21 +7289,21 @@
     </row>
     <row r="182" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G182" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K182" t="s">
         <v>297</v>
       </c>
       <c r="M182" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O182" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G183" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K183" t="s">
         <v>298</v>
@@ -7252,11 +7328,11 @@
     </row>
     <row r="185" spans="7:15" x14ac:dyDescent="0.15">
       <c r="K185" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L185" s="28"/>
       <c r="M185" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N185" s="28"/>
       <c r="O185" s="29" t="s">
@@ -7268,7 +7344,7 @@
         <v>300</v>
       </c>
       <c r="M186" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O186" s="23" t="s">
         <v>306</v>
@@ -7276,7 +7352,7 @@
     </row>
     <row r="189" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G189" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I189" s="24" t="s">
         <v>286</v>
@@ -7295,7 +7371,7 @@
     </row>
     <row r="190" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G190" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K190" s="28" t="s">
         <v>297</v>
@@ -7311,7 +7387,7 @@
     </row>
     <row r="191" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G191" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K191" t="s">
         <v>298</v>
@@ -7335,13 +7411,15 @@
       </c>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K193" t="s">
+      <c r="K193" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="L193" s="28"/>
+      <c r="M193" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="M193" t="s">
-        <v>335</v>
-      </c>
-      <c r="O193" s="25" t="s">
+      <c r="N193" s="28"/>
+      <c r="O193" s="29" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7363,13 +7441,13 @@
     </row>
     <row r="202" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D202" s="23" t="s">
         <v>306</v>
       </c>
       <c r="G202" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I202" s="24" t="s">
         <v>286</v>
@@ -7386,10 +7464,10 @@
     </row>
     <row r="203" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K203" s="28" t="s">
         <v>297</v>
@@ -7405,7 +7483,7 @@
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D204" s="23" t="s">
         <v>306</v>
@@ -7422,7 +7500,7 @@
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D205" s="23" t="s">
         <v>306</v>
@@ -7439,7 +7517,7 @@
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D206" s="23" t="s">
         <v>306</v>
@@ -7456,7 +7534,7 @@
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D207" s="23" t="s">
         <v>306</v>
@@ -7464,7 +7542,7 @@
     </row>
     <row r="209" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G209" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I209" s="22" t="s">
         <v>311</v>
@@ -7480,11 +7558,14 @@
       </c>
     </row>
     <row r="210" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G210" t="s">
+        <v>339</v>
+      </c>
       <c r="K210" t="s">
         <v>297</v>
       </c>
       <c r="M210" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="O210" s="25" t="s">
         <v>290</v>

--- a/doc/水表功能列表.xlsx
+++ b/doc/水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="341">
   <si>
     <t>表端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1418,12 +1418,40 @@
     <t>wait pkt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>exit /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>step 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,6 +1548,22 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1769,7 +1813,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1866,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1919,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1972,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +2025,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2078,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2131,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2184,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2237,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2290,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2343,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2396,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2449,7 @@
         <xdr:cNvPr id="58" name="直接箭头连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2502,7 @@
         <xdr:cNvPr id="59" name="直接箭头连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2555,7 @@
         <xdr:cNvPr id="60" name="直接箭头连接符 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2608,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2661,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2714,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2767,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2820,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2873,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2926,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,7 +2979,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +3032,7 @@
         <xdr:cNvPr id="65" name="直接箭头连接符 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3085,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3138,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3191,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,7 +3244,7 @@
         <xdr:cNvPr id="71" name="直接箭头连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3297,7 @@
         <xdr:cNvPr id="72" name="直接箭头连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3306,7 +3350,7 @@
         <xdr:cNvPr id="73" name="直接箭头连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3403,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3456,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,7 +3509,7 @@
         <xdr:cNvPr id="76" name="直接箭头连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3562,7 @@
         <xdr:cNvPr id="77" name="直接箭头连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3571,7 +3615,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3624,7 +3668,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3721,7 @@
         <xdr:cNvPr id="80" name="直接箭头连接符 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3730,7 +3774,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,7 +3827,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3836,7 +3880,7 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3933,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3942,7 +3986,7 @@
         <xdr:cNvPr id="81" name="直接箭头连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3995,7 +4039,7 @@
         <xdr:cNvPr id="82" name="直接箭头连接符 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4048,7 +4092,7 @@
         <xdr:cNvPr id="86" name="直接箭头连接符 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4101,7 +4145,7 @@
         <xdr:cNvPr id="87" name="直接箭头连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4154,7 +4198,7 @@
         <xdr:cNvPr id="88" name="直接箭头连接符 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4393,7 +4437,7 @@
         <xdr:cNvPr id="83" name="直接箭头连接符 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4446,7 +4490,7 @@
         <xdr:cNvPr id="85" name="直接箭头连接符 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4543,7 @@
         <xdr:cNvPr id="90" name="直接箭头连接符 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4552,7 +4596,7 @@
         <xdr:cNvPr id="91" name="直接箭头连接符 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4605,7 +4649,7 @@
         <xdr:cNvPr id="95" name="直接箭头连接符 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4658,7 +4702,7 @@
         <xdr:cNvPr id="103" name="直接箭头连接符 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4711,7 +4755,7 @@
         <xdr:cNvPr id="84" name="直接箭头连接符 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4764,7 +4808,7 @@
         <xdr:cNvPr id="89" name="直接箭头连接符 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4817,7 +4861,7 @@
         <xdr:cNvPr id="92" name="直接箭头连接符 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4870,7 +4914,7 @@
         <xdr:cNvPr id="94" name="直接箭头连接符 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5197,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G214" sqref="G214"/>
+    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O186" sqref="O186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7323,7 +7367,7 @@
         <v>304</v>
       </c>
       <c r="O184" s="25" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
     </row>
     <row r="185" spans="7:15" x14ac:dyDescent="0.15">
